--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>3.704051282521292</v>
+        <v>-2.515288930168324</v>
       </c>
       <c r="C2">
-        <v>2.350769727091361</v>
+        <v>5.469485029821115</v>
       </c>
       <c r="D2">
-        <v>2.608743059361374</v>
+        <v>3.540762996875145</v>
       </c>
       <c r="E2">
-        <v>1.467857330083988</v>
+        <v>4.959184400694483</v>
       </c>
       <c r="F2">
-        <v>3.190166447130025</v>
+        <v>-1.825783515119027</v>
       </c>
       <c r="G2">
-        <v>3.360965967234947</v>
+        <v>1.874837942983618</v>
       </c>
       <c r="H2">
-        <v>3.333022892298317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.675323243939076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-1.35328155542993</v>
+        <v>1.765433747299823</v>
       </c>
       <c r="C3">
-        <v>-1.095308223159918</v>
+        <v>-0.1632882856461468</v>
       </c>
       <c r="D3">
-        <v>-2.236193952437304</v>
+        <v>1.255133118173191</v>
       </c>
       <c r="E3">
-        <v>-0.5138848353912668</v>
+        <v>-5.529834797640319</v>
       </c>
       <c r="F3">
-        <v>-0.3430853152863449</v>
+        <v>-1.829213339537674</v>
       </c>
       <c r="G3">
-        <v>-0.371028390222975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-2.028728038582216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.2579733322700122</v>
+        <v>1.189993269783784</v>
       </c>
       <c r="C4">
-        <v>-0.8829123970073738</v>
+        <v>2.608414673603122</v>
       </c>
       <c r="D4">
-        <v>0.8393967200386636</v>
+        <v>-4.176553242210388</v>
       </c>
       <c r="E4">
-        <v>1.010196240143586</v>
+        <v>-0.4759317841077432</v>
       </c>
       <c r="F4">
-        <v>0.9822531652069555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.6754464831522852</v>
+      </c>
+      <c r="G4">
+        <v>1.478677874084156</v>
+      </c>
+      <c r="H4">
+        <v>-2.955658350684927</v>
+      </c>
+      <c r="I4">
+        <v>1.765133152079301</v>
+      </c>
+      <c r="J4">
+        <v>0.1034734828819666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-1.140885729277386</v>
+        <v>2.350441341333109</v>
       </c>
       <c r="C5">
-        <v>0.5814233877686514</v>
+        <v>-4.434526574480401</v>
       </c>
       <c r="D5">
-        <v>0.7522229078735734</v>
+        <v>-0.7339051163777555</v>
       </c>
       <c r="E5">
-        <v>0.7242798329369433</v>
+        <v>-0.9334198154222975</v>
       </c>
       <c r="F5">
-        <v>-0.3337199878924224</v>
+        <v>1.220704541814143</v>
       </c>
       <c r="G5">
-        <v>0.8144597260374833</v>
+        <v>-3.21363168295494</v>
       </c>
       <c r="H5">
-        <v>0.1444758820399983</v>
+        <v>1.507159819809289</v>
       </c>
       <c r="I5">
-        <v>-0.1367249067911729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.1544998493880456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>1.722309117046037</v>
+        <v>-3.293640845203015</v>
       </c>
       <c r="C6">
-        <v>1.893108637150959</v>
+        <v>0.4069806128996306</v>
       </c>
       <c r="D6">
-        <v>1.865165562214329</v>
+        <v>0.2074659138550886</v>
       </c>
       <c r="E6">
-        <v>0.8071657413849636</v>
+        <v>2.361590271091529</v>
       </c>
       <c r="F6">
-        <v>1.955345455314869</v>
+        <v>-2.072745953677554</v>
       </c>
       <c r="G6">
-        <v>1.285361611317384</v>
+        <v>2.648045549086675</v>
       </c>
       <c r="H6">
-        <v>1.004160822486213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.9863858798893403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.1707995201049219</v>
+        <v>-1.315328504146407</v>
       </c>
       <c r="C7">
-        <v>0.1428564451682919</v>
+        <v>-1.514843203190949</v>
       </c>
       <c r="D7">
-        <v>-0.9151433756610738</v>
+        <v>0.6392811540454919</v>
       </c>
       <c r="E7">
-        <v>0.2330363382688319</v>
+        <v>-3.795055070723591</v>
       </c>
       <c r="F7">
-        <v>-0.4369475057286532</v>
+        <v>0.9257364320406372</v>
       </c>
       <c r="G7">
-        <v>-0.7181482945598243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.7359232371566971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.02794307493663006</v>
+        <v>-1.685642723295871</v>
       </c>
       <c r="C8">
-        <v>-1.085942895765996</v>
+        <v>0.46848163394057</v>
       </c>
       <c r="D8">
-        <v>0.06223681816390991</v>
+        <v>-3.965854590828513</v>
       </c>
       <c r="E8">
-        <v>-0.6077470258335751</v>
+        <v>0.7549369119357152</v>
       </c>
       <c r="F8">
-        <v>-0.8889478146647463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.906722757261619</v>
+      </c>
+      <c r="G8">
+        <v>-2.296904327241691</v>
+      </c>
+      <c r="H8">
+        <v>-1.780776948699284</v>
+      </c>
+      <c r="I8">
+        <v>0.8202661914371991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-1.057999820829366</v>
+        <v>0.4964247088772</v>
       </c>
       <c r="C9">
-        <v>0.09017989310053998</v>
+        <v>-3.937911515891883</v>
       </c>
       <c r="D9">
-        <v>-0.579803950896945</v>
+        <v>0.7828799868723453</v>
       </c>
       <c r="E9">
-        <v>-0.8610047397281162</v>
+        <v>-0.8787796823249889</v>
       </c>
       <c r="F9">
-        <v>-1.000176816167581</v>
+        <v>-2.268961252305061</v>
       </c>
       <c r="G9">
-        <v>-1.220254378772154</v>
+        <v>-1.752833873762654</v>
       </c>
       <c r="H9">
-        <v>-1.081240487036112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.8482092663738292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>1.148179713929906</v>
+        <v>-2.879911695062517</v>
       </c>
       <c r="C10">
-        <v>0.4781958699324207</v>
+        <v>1.840879807701711</v>
       </c>
       <c r="D10">
-        <v>0.1969950811012495</v>
+        <v>0.1792201385043768</v>
       </c>
       <c r="E10">
-        <v>0.05782300466178469</v>
+        <v>-1.210961431475695</v>
       </c>
       <c r="F10">
-        <v>-0.1622545579427879</v>
+        <v>-0.6948340529332881</v>
       </c>
       <c r="G10">
-        <v>-0.02324066620674611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.906209087203195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.669983843997485</v>
+        <v>0.6927000937718053</v>
       </c>
       <c r="C11">
-        <v>-0.9511846328286562</v>
+        <v>-0.9689595754255289</v>
       </c>
       <c r="D11">
-        <v>-1.090356709268121</v>
+        <v>-2.359141145405601</v>
       </c>
       <c r="E11">
-        <v>-1.310434271872694</v>
+        <v>-1.843013766863194</v>
       </c>
       <c r="F11">
-        <v>-1.171420380136652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.7580293732732892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2812007888311712</v>
+        <v>-0.2989757314280439</v>
       </c>
       <c r="C12">
-        <v>-0.420372865270636</v>
+        <v>-1.689157301408116</v>
       </c>
       <c r="D12">
-        <v>-0.6404504278752086</v>
+        <v>-1.173029922865709</v>
       </c>
       <c r="E12">
-        <v>-0.5014365361391668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1.428013217270774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.1391720764394648</v>
+        <v>-1.407956512576945</v>
       </c>
       <c r="C13">
-        <v>-0.3592496390440373</v>
+        <v>-0.8918291340345377</v>
       </c>
       <c r="D13">
-        <v>-0.2202357473079956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1.709214006101945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.2200775626045726</v>
+        <v>-0.7526570575950728</v>
       </c>
       <c r="C14">
-        <v>-0.08106367086853081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1.84838608254141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.1390138917360418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>2.068463645145983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-2.515288930168324</v>
+        <v>3.704051282521292</v>
       </c>
       <c r="C2">
-        <v>5.469485029821115</v>
+        <v>2.350769727091361</v>
       </c>
       <c r="D2">
-        <v>3.540762996875145</v>
+        <v>2.608743059361374</v>
       </c>
       <c r="E2">
-        <v>4.959184400694483</v>
+        <v>1.467857330083988</v>
       </c>
       <c r="F2">
-        <v>-1.825783515119027</v>
+        <v>3.190166447130025</v>
       </c>
       <c r="G2">
-        <v>1.874837942983618</v>
+        <v>3.360965967234947</v>
       </c>
       <c r="H2">
-        <v>1.675323243939076</v>
+        <v>3.333022892298317</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.765433747299823</v>
+        <v>-1.35328155542993</v>
       </c>
       <c r="C3">
-        <v>-0.1632882856461468</v>
+        <v>-1.095308223159918</v>
       </c>
       <c r="D3">
-        <v>1.255133118173191</v>
+        <v>-2.236193952437304</v>
       </c>
       <c r="E3">
-        <v>-5.529834797640319</v>
+        <v>-0.5138848353912668</v>
       </c>
       <c r="F3">
-        <v>-1.829213339537674</v>
+        <v>-0.3430853152863449</v>
       </c>
       <c r="G3">
-        <v>-2.028728038582216</v>
+        <v>-0.371028390222975</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.189993269783784</v>
+        <v>0.2579733322700122</v>
       </c>
       <c r="C4">
-        <v>2.608414673603122</v>
+        <v>-0.8829123970073738</v>
       </c>
       <c r="D4">
-        <v>-4.176553242210388</v>
+        <v>0.8393967200386636</v>
       </c>
       <c r="E4">
-        <v>-0.4759317841077432</v>
+        <v>1.010196240143586</v>
       </c>
       <c r="F4">
-        <v>-0.6754464831522852</v>
+        <v>0.9822531652069555</v>
       </c>
       <c r="G4">
-        <v>1.478677874084156</v>
+        <v>-0.0757466556224102</v>
       </c>
       <c r="H4">
-        <v>-2.955658350684927</v>
+        <v>1.072433058307495</v>
       </c>
       <c r="I4">
-        <v>1.765133152079301</v>
+        <v>0.4024492143100105</v>
       </c>
       <c r="J4">
-        <v>0.1034734828819666</v>
+        <v>0.1212484254788393</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.350441341333109</v>
+        <v>-1.140885729277386</v>
       </c>
       <c r="C5">
-        <v>-4.434526574480401</v>
+        <v>0.5814233877686514</v>
       </c>
       <c r="D5">
-        <v>-0.7339051163777555</v>
+        <v>0.7522229078735734</v>
       </c>
       <c r="E5">
-        <v>-0.9334198154222975</v>
+        <v>0.7242798329369433</v>
       </c>
       <c r="F5">
-        <v>1.220704541814143</v>
+        <v>-0.3337199878924224</v>
       </c>
       <c r="G5">
-        <v>-3.21363168295494</v>
+        <v>0.8144597260374833</v>
       </c>
       <c r="H5">
-        <v>1.507159819809289</v>
+        <v>0.1444758820399983</v>
       </c>
       <c r="I5">
-        <v>-0.1544998493880456</v>
+        <v>-0.1367249067911729</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-3.293640845203015</v>
+        <v>1.722309117046037</v>
       </c>
       <c r="C6">
-        <v>0.4069806128996306</v>
+        <v>1.893108637150959</v>
       </c>
       <c r="D6">
-        <v>0.2074659138550886</v>
+        <v>1.865165562214329</v>
       </c>
       <c r="E6">
-        <v>2.361590271091529</v>
+        <v>0.8071657413849636</v>
       </c>
       <c r="F6">
-        <v>-2.072745953677554</v>
+        <v>1.955345455314869</v>
       </c>
       <c r="G6">
-        <v>2.648045549086675</v>
+        <v>1.285361611317384</v>
       </c>
       <c r="H6">
-        <v>0.9863858798893403</v>
+        <v>1.004160822486213</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-1.315328504146407</v>
+        <v>0.1707995201049219</v>
       </c>
       <c r="C7">
-        <v>-1.514843203190949</v>
+        <v>0.1428564451682919</v>
       </c>
       <c r="D7">
-        <v>0.6392811540454919</v>
+        <v>-0.9151433756610738</v>
       </c>
       <c r="E7">
-        <v>-3.795055070723591</v>
+        <v>0.2330363382688319</v>
       </c>
       <c r="F7">
-        <v>0.9257364320406372</v>
+        <v>-0.4369475057286532</v>
       </c>
       <c r="G7">
-        <v>-0.7359232371566971</v>
+        <v>-0.7181482945598243</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-1.685642723295871</v>
+        <v>-0.02794307493663006</v>
       </c>
       <c r="C8">
-        <v>0.46848163394057</v>
+        <v>-1.085942895765996</v>
       </c>
       <c r="D8">
-        <v>-3.965854590828513</v>
+        <v>0.06223681816390991</v>
       </c>
       <c r="E8">
-        <v>0.7549369119357152</v>
+        <v>-0.6077470258335751</v>
       </c>
       <c r="F8">
-        <v>-0.906722757261619</v>
+        <v>-0.8889478146647463</v>
       </c>
       <c r="G8">
-        <v>-2.296904327241691</v>
+        <v>-1.028119891104211</v>
       </c>
       <c r="H8">
-        <v>-1.780776948699284</v>
+        <v>-1.248197453708784</v>
       </c>
       <c r="I8">
-        <v>0.8202661914371991</v>
+        <v>-1.109183561972742</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.4964247088772</v>
+        <v>-1.057999820829366</v>
       </c>
       <c r="C9">
-        <v>-3.937911515891883</v>
+        <v>0.09017989310053998</v>
       </c>
       <c r="D9">
-        <v>0.7828799868723453</v>
+        <v>-0.579803950896945</v>
       </c>
       <c r="E9">
-        <v>-0.8787796823249889</v>
+        <v>-0.8610047397281162</v>
       </c>
       <c r="F9">
-        <v>-2.268961252305061</v>
+        <v>-1.000176816167581</v>
       </c>
       <c r="G9">
-        <v>-1.752833873762654</v>
+        <v>-1.220254378772154</v>
       </c>
       <c r="H9">
-        <v>0.8482092663738292</v>
+        <v>-1.081240487036112</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-2.879911695062517</v>
+        <v>1.148179713929906</v>
       </c>
       <c r="C10">
-        <v>1.840879807701711</v>
+        <v>0.4781958699324207</v>
       </c>
       <c r="D10">
-        <v>0.1792201385043768</v>
+        <v>0.1969950811012495</v>
       </c>
       <c r="E10">
-        <v>-1.210961431475695</v>
+        <v>0.05782300466178469</v>
       </c>
       <c r="F10">
-        <v>-0.6948340529332881</v>
+        <v>-0.1622545579427879</v>
       </c>
       <c r="G10">
-        <v>1.906209087203195</v>
+        <v>-0.02324066620674611</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.6927000937718053</v>
+        <v>-0.669983843997485</v>
       </c>
       <c r="C11">
-        <v>-0.9689595754255289</v>
+        <v>-0.9511846328286562</v>
       </c>
       <c r="D11">
-        <v>-2.359141145405601</v>
+        <v>-1.090356709268121</v>
       </c>
       <c r="E11">
-        <v>-1.843013766863194</v>
+        <v>-1.310434271872694</v>
       </c>
       <c r="F11">
-        <v>0.7580293732732892</v>
+        <v>-1.171420380136652</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2989757314280439</v>
+        <v>-0.2812007888311712</v>
       </c>
       <c r="C12">
-        <v>-1.689157301408116</v>
+        <v>-0.420372865270636</v>
       </c>
       <c r="D12">
-        <v>-1.173029922865709</v>
+        <v>-0.6404504278752086</v>
       </c>
       <c r="E12">
-        <v>1.428013217270774</v>
+        <v>-0.5014365361391668</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1.407956512576945</v>
+        <v>-0.1391720764394648</v>
       </c>
       <c r="C13">
-        <v>-0.8918291340345377</v>
+        <v>-0.3592496390440373</v>
       </c>
       <c r="D13">
-        <v>1.709214006101945</v>
+        <v>-0.2202357473079956</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.7526570575950728</v>
+        <v>-0.2200775626045726</v>
       </c>
       <c r="C14">
-        <v>1.84838608254141</v>
+        <v>-0.08106367086853081</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>2.068463645145983</v>
+        <v>0.1390138917360418</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-3.9299002821854</v>
+      </c>
+      <c r="C2">
+        <v>3.955808773199863</v>
+      </c>
+      <c r="D2">
+        <v>0.2800700137360081</v>
+      </c>
+      <c r="E2">
+        <v>1.831229714613301</v>
+      </c>
+      <c r="F2">
+        <v>3.1482358665139</v>
+      </c>
+      <c r="G2">
+        <v>-0.691828055922898</v>
+      </c>
+      <c r="H2">
+        <v>-0.927892787055939</v>
+      </c>
+      <c r="I2">
+        <v>1.51340499208942</v>
+      </c>
+      <c r="J2">
+        <v>4.381095299720741</v>
+      </c>
+      <c r="K2">
+        <v>-6.295024784625113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4.209970295921408</v>
+      </c>
+      <c r="C3">
+        <v>5.761129996798701</v>
+      </c>
+      <c r="D3">
+        <v>7.078136148699301</v>
+      </c>
+      <c r="E3">
+        <v>3.238072226262502</v>
+      </c>
+      <c r="F3">
+        <v>3.002007495129461</v>
+      </c>
+      <c r="G3">
+        <v>5.44330527427482</v>
+      </c>
+      <c r="H3">
+        <v>8.310995581906141</v>
+      </c>
+      <c r="I3">
+        <v>-2.365124502439713</v>
+      </c>
+      <c r="J3">
+        <v>4.908427384937752</v>
+      </c>
+      <c r="K3">
+        <v>7.078976236202408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2.868165852777892</v>
+      </c>
+      <c r="C4">
+        <v>-0.9718980696589061</v>
+      </c>
+      <c r="D4">
+        <v>-1.207962800791947</v>
+      </c>
+      <c r="E4">
+        <v>1.233334978353412</v>
+      </c>
+      <c r="F4">
+        <v>4.101025285984733</v>
+      </c>
+      <c r="G4">
+        <v>-6.575094798361121</v>
+      </c>
+      <c r="H4">
+        <v>0.698457089016344</v>
+      </c>
+      <c r="I4">
+        <v>2.869005940280999</v>
+      </c>
+      <c r="J4">
+        <v>-5.912309383018765</v>
+      </c>
+      <c r="K4">
+        <v>0.6530217580637157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-4.076128653569839</v>
+      </c>
+      <c r="C5">
+        <v>-1.63483087442448</v>
+      </c>
+      <c r="D5">
+        <v>1.232859433206841</v>
+      </c>
+      <c r="E5">
+        <v>-9.443260651139013</v>
+      </c>
+      <c r="F5">
+        <v>-2.169708763761548</v>
+      </c>
+      <c r="G5">
+        <v>0.0008400875031071564</v>
+      </c>
+      <c r="H5">
+        <v>-8.780475235796656</v>
+      </c>
+      <c r="I5">
+        <v>-2.215144094714176</v>
+      </c>
+      <c r="J5">
+        <v>-1.920118377169089</v>
+      </c>
+      <c r="K5">
+        <v>-4.490704735090688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5.308988086776679</v>
+      </c>
+      <c r="C6">
+        <v>-5.367131997569174</v>
+      </c>
+      <c r="D6">
+        <v>1.906419889808291</v>
+      </c>
+      <c r="E6">
+        <v>4.076968741072946</v>
+      </c>
+      <c r="F6">
+        <v>-4.704346582226817</v>
+      </c>
+      <c r="G6">
+        <v>1.860984558855663</v>
+      </c>
+      <c r="H6">
+        <v>2.15601027640075</v>
+      </c>
+      <c r="I6">
+        <v>-0.414576081520849</v>
+      </c>
+      <c r="J6">
+        <v>2.832914289880847</v>
+      </c>
+      <c r="K6">
+        <v>2.569316918142917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-3.402568196968389</v>
+      </c>
+      <c r="C7">
+        <v>-1.232019345703734</v>
+      </c>
+      <c r="D7">
+        <v>-10.0133346690035</v>
+      </c>
+      <c r="E7">
+        <v>-3.448003527921017</v>
+      </c>
+      <c r="F7">
+        <v>-3.15297781037593</v>
+      </c>
+      <c r="G7">
+        <v>-5.723564168297528</v>
+      </c>
+      <c r="H7">
+        <v>-2.476073796895833</v>
+      </c>
+      <c r="I7">
+        <v>-2.739671168633763</v>
+      </c>
+      <c r="J7">
+        <v>-5.350192146326137</v>
+      </c>
+      <c r="K7">
+        <v>-3.089162077687718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-6.610766472035109</v>
+      </c>
+      <c r="C8">
+        <v>-0.04543533095262831</v>
+      </c>
+      <c r="D8">
+        <v>0.2495903865924589</v>
+      </c>
+      <c r="E8">
+        <v>-2.32099597132914</v>
+      </c>
+      <c r="F8">
+        <v>0.9264944000725559</v>
+      </c>
+      <c r="G8">
+        <v>0.6628970283346258</v>
+      </c>
+      <c r="H8">
+        <v>-1.947623949357748</v>
+      </c>
+      <c r="I8">
+        <v>0.3134061192806712</v>
+      </c>
+      <c r="J8">
+        <v>1.667543063003066</v>
+      </c>
+      <c r="K8">
+        <v>-2.330995446964522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>6.860356858627568</v>
+      </c>
+      <c r="C9">
+        <v>4.289770500705968</v>
+      </c>
+      <c r="D9">
+        <v>7.537260872107664</v>
+      </c>
+      <c r="E9">
+        <v>7.273663500369734</v>
+      </c>
+      <c r="F9">
+        <v>4.663142522677361</v>
+      </c>
+      <c r="G9">
+        <v>6.92417259131578</v>
+      </c>
+      <c r="H9">
+        <v>8.278309535038176</v>
+      </c>
+      <c r="I9">
+        <v>4.279771025070587</v>
+      </c>
+      <c r="J9">
+        <v>3.833239415386485</v>
+      </c>
+      <c r="K9">
+        <v>5.995294367417741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.676904013480097</v>
+      </c>
+      <c r="C10">
+        <v>0.4133066417421669</v>
+      </c>
+      <c r="D10">
+        <v>-2.197214335950207</v>
+      </c>
+      <c r="E10">
+        <v>0.06381573268821228</v>
+      </c>
+      <c r="F10">
+        <v>1.417952676410607</v>
+      </c>
+      <c r="G10">
+        <v>-2.580585833556981</v>
+      </c>
+      <c r="H10">
+        <v>-3.027117443241082</v>
+      </c>
+      <c r="I10">
+        <v>-0.8650624912098266</v>
+      </c>
+      <c r="J10">
+        <v>-4.310500448812462</v>
+      </c>
+      <c r="K10">
+        <v>3.224871986173213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-2.874118349430304</v>
+      </c>
+      <c r="C11">
+        <v>-0.6130882807918847</v>
+      </c>
+      <c r="D11">
+        <v>0.7410486629305102</v>
+      </c>
+      <c r="E11">
+        <v>-3.257489847037078</v>
+      </c>
+      <c r="F11">
+        <v>-3.704021456721179</v>
+      </c>
+      <c r="G11">
+        <v>-1.541966504689924</v>
+      </c>
+      <c r="H11">
+        <v>-4.98740446229256</v>
+      </c>
+      <c r="I11">
+        <v>2.547967972693116</v>
+      </c>
+      <c r="J11">
+        <v>-0.9985800908963962</v>
+      </c>
+      <c r="K11">
+        <v>-2.672342286164919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.615167012360814</v>
+      </c>
+      <c r="C12">
+        <v>-0.3833714976067739</v>
+      </c>
+      <c r="D12">
+        <v>-0.8299031072908751</v>
+      </c>
+      <c r="E12">
+        <v>1.33215184474038</v>
+      </c>
+      <c r="F12">
+        <v>-2.113286112862255</v>
+      </c>
+      <c r="G12">
+        <v>5.42208632212342</v>
+      </c>
+      <c r="H12">
+        <v>1.875538258533908</v>
+      </c>
+      <c r="I12">
+        <v>0.2017760632653849</v>
+      </c>
+      <c r="J12">
+        <v>-0.172466203975489</v>
+      </c>
+      <c r="K12">
+        <v>2.828663887890258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-4.445070119651689</v>
+      </c>
+      <c r="C13">
+        <v>-2.283015167620434</v>
+      </c>
+      <c r="D13">
+        <v>-5.728453125223069</v>
+      </c>
+      <c r="E13">
+        <v>1.806919309762606</v>
+      </c>
+      <c r="F13">
+        <v>-1.739628753826906</v>
+      </c>
+      <c r="G13">
+        <v>-3.41339094909543</v>
+      </c>
+      <c r="H13">
+        <v>-3.787633216336303</v>
+      </c>
+      <c r="I13">
+        <v>-0.7865031244705563</v>
+      </c>
+      <c r="J13">
+        <v>-1.762665076269329</v>
+      </c>
+      <c r="K13">
+        <v>-4.057634516354682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1.28338300557138</v>
+      </c>
+      <c r="C14">
+        <v>6.251989429414295</v>
+      </c>
+      <c r="D14">
+        <v>2.705441365824783</v>
+      </c>
+      <c r="E14">
+        <v>1.03167917055626</v>
+      </c>
+      <c r="F14">
+        <v>0.6574369033153862</v>
+      </c>
+      <c r="G14">
+        <v>3.658566995181133</v>
+      </c>
+      <c r="H14">
+        <v>2.682405043382361</v>
+      </c>
+      <c r="I14">
+        <v>0.3874356032970072</v>
+      </c>
+      <c r="J14">
+        <v>0.03194204313337012</v>
+      </c>
+      <c r="K14">
+        <v>4.264612701903929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>3.988824371396163</v>
+      </c>
+      <c r="C15">
+        <v>2.31506217612764</v>
+      </c>
+      <c r="D15">
+        <v>1.940819908886766</v>
+      </c>
+      <c r="E15">
+        <v>4.941950000752513</v>
+      </c>
+      <c r="F15">
+        <v>3.96578804895374</v>
+      </c>
+      <c r="G15">
+        <v>1.670818608868387</v>
+      </c>
+      <c r="H15">
+        <v>1.31532504870475</v>
+      </c>
+      <c r="I15">
+        <v>5.547995707475309</v>
+      </c>
+      <c r="J15">
+        <v>3.361655565769908</v>
+      </c>
+      <c r="K15">
+        <v>2.816924713282049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-2.048004462509397</v>
+      </c>
+      <c r="C16">
+        <v>0.9531256293563501</v>
+      </c>
+      <c r="D16">
+        <v>-0.02303632244242237</v>
+      </c>
+      <c r="E16">
+        <v>-2.318005762527775</v>
+      </c>
+      <c r="F16">
+        <v>-2.673499322691413</v>
+      </c>
+      <c r="G16">
+        <v>1.559171336079146</v>
+      </c>
+      <c r="H16">
+        <v>-0.6271688056262548</v>
+      </c>
+      <c r="I16">
+        <v>-1.171899658114114</v>
+      </c>
+      <c r="J16">
+        <v>-2.648291476919099</v>
+      </c>
+      <c r="K16">
+        <v>-0.8430191598295238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>2.024968140066974</v>
+      </c>
+      <c r="C17">
+        <v>-0.270001300018379</v>
+      </c>
+      <c r="D17">
+        <v>-0.6254948601820161</v>
+      </c>
+      <c r="E17">
+        <v>3.607175798588543</v>
+      </c>
+      <c r="F17">
+        <v>1.420835656883142</v>
+      </c>
+      <c r="G17">
+        <v>0.8761048043952826</v>
+      </c>
+      <c r="H17">
+        <v>-0.6002870144097021</v>
+      </c>
+      <c r="I17">
+        <v>1.204985302679873</v>
+      </c>
+      <c r="J17">
+        <v>2.131883659316486</v>
+      </c>
+      <c r="K17">
+        <v>2.05721886815607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-2.65046300024899</v>
+      </c>
+      <c r="C18">
+        <v>1.582207658521569</v>
+      </c>
+      <c r="D18">
+        <v>-0.6041324831838324</v>
+      </c>
+      <c r="E18">
+        <v>-1.148863335671692</v>
+      </c>
+      <c r="F18">
+        <v>-2.625255154476676</v>
+      </c>
+      <c r="G18">
+        <v>-0.8199828373871014</v>
+      </c>
+      <c r="H18">
+        <v>0.1069155192495117</v>
+      </c>
+      <c r="I18">
+        <v>0.03225072808909601</v>
+      </c>
+      <c r="J18">
+        <v>-2.39717264107641</v>
+      </c>
+      <c r="K18">
+        <v>-0.9342295531945837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>2.046330517065158</v>
+      </c>
+      <c r="C19">
+        <v>1.501599664577299</v>
+      </c>
+      <c r="D19">
+        <v>0.02520784577231394</v>
+      </c>
+      <c r="E19">
+        <v>1.830480162861889</v>
+      </c>
+      <c r="F19">
+        <v>2.757378519498502</v>
+      </c>
+      <c r="G19">
+        <v>2.682713728338086</v>
+      </c>
+      <c r="H19">
+        <v>0.2532903591725808</v>
+      </c>
+      <c r="I19">
+        <v>1.716233447054407</v>
+      </c>
+      <c r="J19">
+        <v>1.425384209656022</v>
+      </c>
+      <c r="K19">
+        <v>1.041061135708745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-2.021122671292844</v>
+      </c>
+      <c r="C20">
+        <v>-0.215850354203269</v>
+      </c>
+      <c r="D20">
+        <v>0.7110480024333441</v>
+      </c>
+      <c r="E20">
+        <v>0.6363832112729284</v>
+      </c>
+      <c r="F20">
+        <v>-1.793040157892577</v>
+      </c>
+      <c r="G20">
+        <v>-0.3300970700107513</v>
+      </c>
+      <c r="H20">
+        <v>-0.620946307409136</v>
+      </c>
+      <c r="I20">
+        <v>-1.005269381356413</v>
+      </c>
+      <c r="J20">
+        <v>-1.620946307409136</v>
+      </c>
+      <c r="K20">
+        <v>1.30546843907139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>2.732170673726188</v>
+      </c>
+      <c r="C21">
+        <v>2.657505882565772</v>
+      </c>
+      <c r="D21">
+        <v>0.2280825134002669</v>
+      </c>
+      <c r="E21">
+        <v>1.691025601282093</v>
+      </c>
+      <c r="F21">
+        <v>1.400176363883708</v>
+      </c>
+      <c r="G21">
+        <v>1.015853289936431</v>
+      </c>
+      <c r="H21">
+        <v>0.4001763638837081</v>
+      </c>
+      <c r="I21">
+        <v>3.326591110364234</v>
+      </c>
+      <c r="J21">
+        <v>1.127195992453338</v>
+      </c>
+      <c r="K21">
+        <v>1.699726312519957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-2.504088160325921</v>
+      </c>
+      <c r="C22">
+        <v>-1.041145072444095</v>
+      </c>
+      <c r="D22">
+        <v>-1.33199430984248</v>
+      </c>
+      <c r="E22">
+        <v>-1.716317383789757</v>
+      </c>
+      <c r="F22">
+        <v>-2.33199430984248</v>
+      </c>
+      <c r="G22">
+        <v>0.5944204366380459</v>
+      </c>
+      <c r="H22">
+        <v>-1.60497468127285</v>
+      </c>
+      <c r="I22">
+        <v>-1.032444361206231</v>
+      </c>
+      <c r="J22">
+        <v>-4.53199430984248</v>
+      </c>
+      <c r="K22">
+        <v>3.790139106583267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.9664802812836797</v>
+      </c>
+      <c r="C23">
+        <v>-1.257329518682064</v>
+      </c>
+      <c r="D23">
+        <v>-1.641652592629341</v>
+      </c>
+      <c r="E23">
+        <v>-2.257329518682064</v>
+      </c>
+      <c r="F23">
+        <v>0.6690852277984616</v>
+      </c>
+      <c r="G23">
+        <v>-1.530309890112434</v>
+      </c>
+      <c r="H23">
+        <v>-0.9577795700458154</v>
+      </c>
+      <c r="I23">
+        <v>-4.457329518682064</v>
+      </c>
+      <c r="J23">
+        <v>3.864803897743683</v>
+      </c>
+      <c r="K23">
+        <v>0.03685412669447891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1.172093850483441</v>
+      </c>
+      <c r="C24">
+        <v>0.7877707765361641</v>
+      </c>
+      <c r="D24">
+        <v>0.1720938504834413</v>
+      </c>
+      <c r="E24">
+        <v>3.098508596963967</v>
+      </c>
+      <c r="F24">
+        <v>0.8991134790530713</v>
+      </c>
+      <c r="G24">
+        <v>1.47164379911969</v>
+      </c>
+      <c r="H24">
+        <v>-2.027906149516558</v>
+      </c>
+      <c r="I24">
+        <v>6.294227266909189</v>
+      </c>
+      <c r="J24">
+        <v>2.466277495859984</v>
+      </c>
+      <c r="K24">
+        <v>1.191934841749998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-0.6751723113456618</v>
+      </c>
+      <c r="C25">
+        <v>-1.290849237398385</v>
+      </c>
+      <c r="D25">
+        <v>1.635565509082141</v>
+      </c>
+      <c r="E25">
+        <v>-0.5638296088287547</v>
+      </c>
+      <c r="F25">
+        <v>0.008700711237864311</v>
+      </c>
+      <c r="G25">
+        <v>-3.490849237398384</v>
+      </c>
+      <c r="H25">
+        <v>4.831284179027363</v>
+      </c>
+      <c r="I25">
+        <v>1.003334407978159</v>
+      </c>
+      <c r="J25">
+        <v>-0.2710082461318279</v>
+      </c>
+      <c r="K25">
+        <v>4.238320634510387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="C26">
+        <v>1.926414746480526</v>
+      </c>
+      <c r="D26">
+        <v>-0.2729803714303699</v>
+      </c>
+      <c r="E26">
+        <v>0.2995499486362491</v>
+      </c>
+      <c r="F26">
+        <v>-3.2</v>
+      </c>
+      <c r="G26">
+        <v>5.122133416425748</v>
+      </c>
+      <c r="H26">
+        <v>1.294183645376543</v>
+      </c>
+      <c r="I26">
+        <v>0.01984099126655681</v>
+      </c>
+      <c r="J26">
+        <v>4.529169871908772</v>
+      </c>
+      <c r="K26">
+        <v>0.2120587902277095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2.310737820427803</v>
+      </c>
+      <c r="C27">
+        <v>0.1113427025169071</v>
+      </c>
+      <c r="D27">
+        <v>0.6838730225835261</v>
+      </c>
+      <c r="E27">
+        <v>-2.815676926052722</v>
+      </c>
+      <c r="F27">
+        <v>5.506456490373025</v>
+      </c>
+      <c r="G27">
+        <v>1.67850671932382</v>
+      </c>
+      <c r="H27">
+        <v>0.4041640652138339</v>
+      </c>
+      <c r="I27">
+        <v>4.913492945856049</v>
+      </c>
+      <c r="J27">
+        <v>0.5963818641749865</v>
+      </c>
+      <c r="K27">
+        <v>0.1887316602449831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.72701962856963</v>
+      </c>
+      <c r="C28">
+        <v>1.299549948636249</v>
+      </c>
+      <c r="D28">
+        <v>-2.2</v>
+      </c>
+      <c r="E28">
+        <v>6.122133416425747</v>
+      </c>
+      <c r="F28">
+        <v>2.294183645376543</v>
+      </c>
+      <c r="G28">
+        <v>1.019840991266557</v>
+      </c>
+      <c r="H28">
+        <v>5.529169871908772</v>
+      </c>
+      <c r="I28">
+        <v>1.212058790227709</v>
+      </c>
+      <c r="J28">
+        <v>0.804408586297706</v>
+      </c>
+      <c r="K28">
+        <v>1.562418190532918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-1.626864797844277</v>
+      </c>
+      <c r="C29">
+        <v>-5.126414746480526</v>
+      </c>
+      <c r="D29">
+        <v>3.195718669945221</v>
+      </c>
+      <c r="E29">
+        <v>-0.6322311011039827</v>
+      </c>
+      <c r="F29">
+        <v>-1.906573755213969</v>
+      </c>
+      <c r="G29">
+        <v>2.602755125428246</v>
+      </c>
+      <c r="H29">
+        <v>-1.714355956252817</v>
+      </c>
+      <c r="I29">
+        <v>-2.12200616018282</v>
+      </c>
+      <c r="J29">
+        <v>-1.363996555947608</v>
+      </c>
+      <c r="K29">
+        <v>-3.134188625363578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-2.92701962856963</v>
+      </c>
+      <c r="C30">
+        <v>5.395113787856118</v>
+      </c>
+      <c r="D30">
+        <v>1.567164016806913</v>
+      </c>
+      <c r="E30">
+        <v>0.2928213626969267</v>
+      </c>
+      <c r="F30">
+        <v>4.802150243339142</v>
+      </c>
+      <c r="G30">
+        <v>0.4850391616580794</v>
+      </c>
+      <c r="H30">
+        <v>0.07738895772807597</v>
+      </c>
+      <c r="I30">
+        <v>0.835398561963288</v>
+      </c>
+      <c r="J30">
+        <v>-0.9347935074526821</v>
+      </c>
+      <c r="K30">
+        <v>2.76925777506861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>4.822583467789499</v>
+      </c>
+      <c r="C31">
+        <v>0.9946336967402942</v>
+      </c>
+      <c r="D31">
+        <v>-0.2797089573696923</v>
+      </c>
+      <c r="E31">
+        <v>4.229619923272523</v>
+      </c>
+      <c r="F31">
+        <v>-0.0874911584085396</v>
+      </c>
+      <c r="G31">
+        <v>-0.495141362338543</v>
+      </c>
+      <c r="H31">
+        <v>0.2628682418966691</v>
+      </c>
+      <c r="I31">
+        <v>-1.507323827519301</v>
+      </c>
+      <c r="J31">
+        <v>2.196727455001991</v>
+      </c>
+      <c r="K31">
+        <v>0.8434458995720604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>4.494183645376543</v>
+      </c>
+      <c r="C32">
+        <v>3.219840991266556</v>
+      </c>
+      <c r="D32">
+        <v>7.729169871908772</v>
+      </c>
+      <c r="E32">
+        <v>3.412058790227709</v>
+      </c>
+      <c r="F32">
+        <v>3.004408586297706</v>
+      </c>
+      <c r="G32">
+        <v>3.762418190532918</v>
+      </c>
+      <c r="H32">
+        <v>1.992226121116948</v>
+      </c>
+      <c r="I32">
+        <v>5.69627740363824</v>
+      </c>
+      <c r="J32">
+        <v>4.342995848208309</v>
+      </c>
+      <c r="K32">
+        <v>4.600969180478321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-1.274342654109986</v>
+      </c>
+      <c r="C33">
+        <v>3.234986226532229</v>
+      </c>
+      <c r="D33">
+        <v>-1.082124855148834</v>
+      </c>
+      <c r="E33">
+        <v>-1.489775059078837</v>
+      </c>
+      <c r="F33">
+        <v>-0.7317654548436252</v>
+      </c>
+      <c r="G33">
+        <v>-2.501957524259595</v>
+      </c>
+      <c r="H33">
+        <v>1.202093758261697</v>
+      </c>
+      <c r="I33">
+        <v>-0.1511877971682339</v>
+      </c>
+      <c r="J33">
+        <v>0.1067855351017783</v>
+      </c>
+      <c r="K33">
+        <v>-1.034100194175608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>4.509328880642215</v>
+      </c>
+      <c r="C34">
+        <v>0.1922177989611527</v>
+      </c>
+      <c r="D34">
+        <v>-0.2154324049688507</v>
+      </c>
+      <c r="E34">
+        <v>0.5425771992663613</v>
+      </c>
+      <c r="F34">
+        <v>-1.227614870149609</v>
+      </c>
+      <c r="G34">
+        <v>2.476436412371683</v>
+      </c>
+      <c r="H34">
+        <v>1.123154856941753</v>
+      </c>
+      <c r="I34">
+        <v>1.381128189211765</v>
+      </c>
+      <c r="J34">
+        <v>0.2402424599343789</v>
+      </c>
+      <c r="K34">
+        <v>1.962551576980416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-4.317111081681063</v>
+      </c>
+      <c r="C35">
+        <v>-4.724761285611066</v>
+      </c>
+      <c r="D35">
+        <v>-3.966751681375854</v>
+      </c>
+      <c r="E35">
+        <v>-5.736943750791824</v>
+      </c>
+      <c r="F35">
+        <v>-2.032892468270532</v>
+      </c>
+      <c r="G35">
+        <v>-3.386174023700462</v>
+      </c>
+      <c r="H35">
+        <v>-3.12820069143045</v>
+      </c>
+      <c r="I35">
+        <v>-4.269086420707836</v>
+      </c>
+      <c r="J35">
+        <v>-2.546777303661799</v>
+      </c>
+      <c r="K35">
+        <v>-2.375977783556877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.4076502039300034</v>
+      </c>
+      <c r="C36">
+        <v>0.3503594003052087</v>
+      </c>
+      <c r="D36">
+        <v>-1.419832669110761</v>
+      </c>
+      <c r="E36">
+        <v>2.28421861341053</v>
+      </c>
+      <c r="F36">
+        <v>0.9309370579806</v>
+      </c>
+      <c r="G36">
+        <v>1.188910390250612</v>
+      </c>
+      <c r="H36">
+        <v>0.04802466097322622</v>
+      </c>
+      <c r="I36">
+        <v>1.770333778019264</v>
+      </c>
+      <c r="J36">
+        <v>1.941133298124186</v>
+      </c>
+      <c r="K36">
+        <v>1.913190223187555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.758009604235212</v>
+      </c>
+      <c r="C37">
+        <v>-1.012182465180758</v>
+      </c>
+      <c r="D37">
+        <v>2.691868817340534</v>
+      </c>
+      <c r="E37">
+        <v>1.338587261910603</v>
+      </c>
+      <c r="F37">
+        <v>1.596560594180616</v>
+      </c>
+      <c r="G37">
+        <v>0.4556748649032296</v>
+      </c>
+      <c r="H37">
+        <v>2.177983981949267</v>
+      </c>
+      <c r="I37">
+        <v>2.348783502054189</v>
+      </c>
+      <c r="J37">
+        <v>2.320840427117559</v>
+      </c>
+      <c r="K37">
+        <v>1.262840606288193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.77019206941597</v>
+      </c>
+      <c r="C38">
+        <v>1.933859213105322</v>
+      </c>
+      <c r="D38">
+        <v>0.5805776576753913</v>
+      </c>
+      <c r="E38">
+        <v>0.8385509899454036</v>
+      </c>
+      <c r="F38">
+        <v>-0.3023347393319825</v>
+      </c>
+      <c r="G38">
+        <v>1.419974377714055</v>
+      </c>
+      <c r="H38">
+        <v>1.590773897818977</v>
+      </c>
+      <c r="I38">
+        <v>1.562830822882347</v>
+      </c>
+      <c r="J38">
+        <v>0.5048310020529811</v>
+      </c>
+      <c r="K38">
+        <v>1.653010715982887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>3.704051282521292</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>2.350769727091361</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>2.608743059361374</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>1.467857330083988</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>3.190166447130025</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>3.360965967234947</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>3.333022892298317</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>2.275023071468951</v>
+      </c>
+      <c r="J39">
+        <v>3.423202785398857</v>
+      </c>
+      <c r="K39">
+        <v>2.753218941401372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-1.35328155542993</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>-1.095308223159918</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>-2.236193952437304</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-0.5138848353912668</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>-0.3430853152863449</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>-0.371028390222975</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>-1.429028211052341</v>
+      </c>
+      <c r="I40">
+        <v>-0.280848497122435</v>
+      </c>
+      <c r="J40">
+        <v>-0.95083234111992</v>
+      </c>
+      <c r="K40">
+        <v>-1.232033129951091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.2579733322700122</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>-0.8829123970073738</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.8393967200386636</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>1.010196240143586</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.9822531652069555</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>-0.0757466556224102</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>1.072433058307495</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.4024492143100105</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>0.1212484254788393</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.01792365096062551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-1.140885729277386</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>0.5814233877686514</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>0.7522229078735734</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>0.7242798329369433</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.3337199878924224</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>0.8144597260374833</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>0.1444758820399983</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-0.1367249067911729</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-0.2758969832306377</v>
+      </c>
+      <c r="K42">
+        <v>-0.4959745458352103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>1.722309117046037</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>1.893108637150959</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>1.865165562214329</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.8071657413849636</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>1.955345455314869</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>1.285361611317384</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>1.004160822486213</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.8649887460467482</v>
+      </c>
+      <c r="J43">
+        <v>0.6449111834421757</v>
+      </c>
+      <c r="K43">
+        <v>0.7839250751782174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.1707995201049219</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.1428564451682919</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>-0.9151433756610738</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.2330363382688319</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>-0.4369475057286532</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.7181482945598243</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.8573203709992891</v>
+      </c>
+      <c r="I44">
+        <v>-1.077397933603862</v>
+      </c>
+      <c r="J44">
+        <v>-0.93838404186782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.02794307493663006</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>-1.085942895765996</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.06223681816390991</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.6077470258335751</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.8889478146647463</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>-1.028119891104211</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-1.248197453708784</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-1.109183561972742</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-1.057999820829366</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.09017989310053998</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>-0.579803950896945</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.8610047397281162</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-1.000176816167581</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-1.220254378772154</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-1.081240487036112</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>1.148179713929906</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.4781958699324207</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>0.1969950811012495</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>0.05782300466178469</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.1622545579427879</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.02324066620674611</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>-0.669983843997485</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.9511846328286562</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-1.090356709268121</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-1.310434271872694</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-1.171420380136652</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.2812007888311712</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.420372865270636</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.6404504278752086</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.5014365361391668</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.1391720764394648</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.3592496390440373</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.2202357473079956</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.2200775626045726</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.08106367086853081</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>0.1390138917360418</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>1.093584638548791</v>
+      </c>
+      <c r="C2">
         <v>-3.9299002821854</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.955808773199863</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2800700137360081</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.831229714613301</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.1482358665139</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.691828055922898</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.927892787055939</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.51340499208942</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4.381095299720741</v>
-      </c>
-      <c r="K2">
-        <v>-6.295024784625113</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>7.885709055385263</v>
+      </c>
+      <c r="C3">
         <v>4.209970295921408</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.761129996798701</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.078136148699301</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.238072226262502</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.002007495129461</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.44330527427482</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.310995581906141</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-2.365124502439713</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4.908427384937752</v>
-      </c>
-      <c r="K3">
-        <v>7.078976236202408</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>1.551159700877293</v>
+      </c>
+      <c r="C4">
         <v>2.868165852777892</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.9718980696589061</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.207962800791947</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.233334978353412</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4.101025285984733</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-6.575094798361121</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.698457089016344</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.869005940280999</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-5.912309383018765</v>
-      </c>
-      <c r="K4">
-        <v>0.6530217580637157</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-3.840063922436798</v>
+      </c>
+      <c r="C5">
         <v>-4.076128653569839</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-1.63483087442448</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.232859433206841</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-9.443260651139013</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-2.169708763761548</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.0008400875031071564</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-8.780475235796656</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-2.215144094714176</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1.920118377169089</v>
-      </c>
-      <c r="K5">
-        <v>-4.490704735090688</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>2.441297779145359</v>
+      </c>
+      <c r="C6">
         <v>5.308988086776679</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-5.367131997569174</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.906419889808291</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4.076968741072946</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-4.704346582226817</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.860984558855663</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.15601027640075</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.414576081520849</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2.832914289880847</v>
-      </c>
-      <c r="K6">
-        <v>2.569316918142917</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-10.67612008434585</v>
+      </c>
+      <c r="C7">
         <v>-3.402568196968389</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-1.232019345703734</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-10.0133346690035</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-3.448003527921017</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-3.15297781037593</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-5.723564168297528</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-2.476073796895833</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-2.739671168633763</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-5.350192146326137</v>
-      </c>
-      <c r="K7">
-        <v>-3.089162077687718</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>2.170548851264655</v>
+      </c>
+      <c r="C8">
         <v>-6.610766472035109</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.04543533095262831</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2495903865924589</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-2.32099597132914</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.9264944000725559</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.6628970283346258</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-1.947623949357748</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.3134061192806712</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.667543063003066</v>
-      </c>
-      <c r="K8">
-        <v>-2.330995446964522</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>6.56533114108248</v>
+      </c>
+      <c r="C9">
         <v>6.860356858627568</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4.289770500705968</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7.537260872107664</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7.273663500369734</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.663142522677361</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.92417259131578</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8.278309535038176</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.279771025070587</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3.833239415386485</v>
-      </c>
-      <c r="K9">
-        <v>5.995294367417741</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-2.570586357921599</v>
+      </c>
+      <c r="C10">
         <v>0.676904013480097</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.4133066417421669</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-2.197214335950207</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.06381573268821228</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.417952676410607</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-2.580585833556981</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-3.027117443241082</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.8650624912098266</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-4.310500448812462</v>
-      </c>
-      <c r="K10">
-        <v>3.224871986173213</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.2635973717379301</v>
+      </c>
+      <c r="C11">
         <v>-2.874118349430304</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.6130882807918847</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.7410486629305102</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-3.257489847037078</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-3.704021456721179</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-1.541966504689924</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-4.98740446229256</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.547967972693116</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.9985800908963962</v>
-      </c>
-      <c r="K11">
-        <v>-2.672342286164919</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>2.261030068638419</v>
+      </c>
+      <c r="C12">
         <v>3.615167012360814</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.3833714976067739</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.8299031072908751</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.33215184474038</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-2.113286112862255</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5.42208632212342</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.875538258533908</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.2017760632653849</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.172466203975489</v>
-      </c>
-      <c r="K12">
-        <v>2.828663887890258</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-3.998538509967588</v>
+      </c>
+      <c r="C13">
         <v>-4.445070119651689</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-2.283015167620434</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-5.728453125223069</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.806919309762606</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-1.739628753826906</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-3.41339094909543</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-3.787633216336303</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.7865031244705563</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1.762665076269329</v>
-      </c>
-      <c r="K13">
-        <v>-4.057634516354682</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>2.162054952031256</v>
+      </c>
+      <c r="C14">
         <v>-1.28338300557138</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>6.251989429414295</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.705441365824783</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.03167917055626</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.6574369033153862</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.658566995181133</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.682405043382361</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.3874356032970072</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.03194204313337012</v>
-      </c>
-      <c r="K14">
-        <v>4.264612701903929</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>7.535372434985675</v>
+      </c>
+      <c r="C15">
         <v>3.988824371396163</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.31506217612764</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.940819908886766</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4.941950000752513</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.96578804895374</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.670818608868387</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.31532504870475</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5.547995707475309</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3.361655565769908</v>
-      </c>
-      <c r="K15">
-        <v>2.816924713282049</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-1.673762195268523</v>
+      </c>
+      <c r="C16">
         <v>-2.048004462509397</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.9531256293563501</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.02303632244242237</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-2.318005762527775</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-2.673499322691413</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.559171336079146</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.6271688056262548</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-1.171899658114114</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-2.648291476919099</v>
-      </c>
-      <c r="K16">
-        <v>-0.8430191598295238</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>3.001130091865747</v>
+      </c>
+      <c r="C17">
         <v>2.024968140066974</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.270001300018379</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.6254948601820161</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.607175798588543</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.420835656883142</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.8761048043952826</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.6002870144097021</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.204985302679873</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2.131883659316486</v>
-      </c>
-      <c r="K17">
-        <v>2.05721886815607</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-2.294969440085353</v>
+      </c>
+      <c r="C18">
         <v>-2.65046300024899</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.582207658521569</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.6041324831838324</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-1.148863335671692</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-2.625255154476676</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.8199828373871014</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.1069155192495117</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.03225072808909601</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-2.39717264107641</v>
-      </c>
-      <c r="K18">
-        <v>-0.9342295531945837</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>4.232670658770559</v>
+      </c>
+      <c r="C19">
         <v>2.046330517065158</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.501599664577299</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.02520784577231394</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.830480162861889</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2.757378519498502</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.682713728338086</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.2532903591725808</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.716233447054407</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.425384209656022</v>
-      </c>
-      <c r="K19">
-        <v>1.041061135708745</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.5447308524878594</v>
+      </c>
+      <c r="C20">
         <v>-2.021122671292844</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.215850354203269</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.7110480024333441</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.6363832112729284</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-1.793040157892577</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.3300970700107513</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.620946307409136</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1.005269381356413</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-1.620946307409136</v>
-      </c>
-      <c r="K20">
-        <v>1.30546843907139</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>1.805272317089575</v>
+      </c>
+      <c r="C21">
         <v>2.732170673726188</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2.657505882565772</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2280825134002669</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.691025601282093</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.400176363883708</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.015853289936431</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4001763638837081</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3.326591110364234</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1.127195992453338</v>
-      </c>
-      <c r="K21">
-        <v>1.699726312519957</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.07466479116041569</v>
+      </c>
+      <c r="C22">
         <v>-2.504088160325921</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-1.041145072444095</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-1.33199430984248</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1.716317383789757</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-2.33199430984248</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.5944204366380459</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-1.60497468127285</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.032444361206231</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-4.53199430984248</v>
-      </c>
-      <c r="K22">
-        <v>3.790139106583267</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-2.429423369165506</v>
+      </c>
+      <c r="C23">
         <v>-0.9664802812836797</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-1.257329518682064</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-1.641652592629341</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-2.257329518682064</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.6690852277984616</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-1.530309890112434</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.9577795700458154</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-4.457329518682064</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3.864803897743683</v>
-      </c>
-      <c r="K23">
-        <v>0.03685412669447891</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>1.462943087881826</v>
+      </c>
+      <c r="C24">
         <v>1.172093850483441</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.7877707765361641</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1720938504834413</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3.098508596963967</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.8991134790530713</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.47164379911969</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-2.027906149516558</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>6.294227266909189</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2.466277495859984</v>
-      </c>
-      <c r="K24">
-        <v>1.191934841749998</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>-0.2908492373983848</v>
+      </c>
+      <c r="C25">
         <v>-0.6751723113456618</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-1.290849237398385</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.635565509082141</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.5638296088287547</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.008700711237864311</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-3.490849237398384</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4.831284179027363</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.003334407978159</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.2710082461318279</v>
-      </c>
-      <c r="K25">
-        <v>4.238320634510387</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-0.384323073947277</v>
+      </c>
+      <c r="C26">
         <v>-0.9999999999999999</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.926414746480526</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.2729803714303699</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.2995499486362491</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-3.2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5.122133416425748</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.294183645376543</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.01984099126655681</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4.529169871908772</v>
-      </c>
-      <c r="K26">
-        <v>0.2120587902277095</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.6156769260527228</v>
+      </c>
+      <c r="C27">
         <v>2.310737820427803</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.1113427025169071</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.6838730225835261</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-2.815676926052722</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>5.506456490373025</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.67850671932382</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.4041640652138339</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4.913492945856049</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.5963818641749865</v>
-      </c>
-      <c r="K27">
-        <v>0.1887316602449831</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>2.926414746480526</v>
+      </c>
+      <c r="C28">
         <v>0.72701962856963</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.299549948636249</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-2.2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6.122133416425747</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2.294183645376543</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.019840991266557</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5.529169871908772</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.212058790227709</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.804408586297706</v>
-      </c>
-      <c r="K28">
-        <v>1.562418190532918</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-2.199395117910896</v>
+      </c>
+      <c r="C29">
         <v>-1.626864797844277</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-5.126414746480526</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3.195718669945221</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.6322311011039827</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-1.906573755213969</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.602755125428246</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1.714355956252817</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-2.12200616018282</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-1.363996555947608</v>
-      </c>
-      <c r="K29">
-        <v>-3.134188625363578</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.572530320066619</v>
+      </c>
+      <c r="C30">
         <v>-2.92701962856963</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5.395113787856118</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.567164016806913</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.2928213626969267</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4.802150243339142</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.4850391616580794</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.07738895772807597</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.835398561963288</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.9347935074526821</v>
-      </c>
-      <c r="K30">
-        <v>2.76925777506861</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>-3.499549948636249</v>
+      </c>
+      <c r="C31">
         <v>4.822583467789499</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.9946336967402942</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.2797089573696923</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>4.229619923272523</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-0.0874911584085396</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.495141362338543</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.2628682418966691</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-1.507323827519301</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2.196727455001991</v>
-      </c>
-      <c r="K31">
-        <v>0.8434458995720604</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>8.322133416425746</v>
+      </c>
+      <c r="C32">
         <v>4.494183645376543</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3.219840991266556</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>7.729169871908772</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3.412058790227709</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3.004408586297706</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.762418190532918</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1.992226121116948</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5.69627740363824</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>4.342995848208309</v>
-      </c>
-      <c r="K32">
-        <v>4.600969180478321</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>-1.274342654109986</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.234986226532229</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-1.082124855148834</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-1.489775059078837</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.7317654548436252</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-2.501957524259595</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1.202093758261697</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.1511877971682339</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.1067855351017783</v>
-      </c>
-      <c r="K33">
-        <v>-1.034100194175608</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>4.509328880642215</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.1922177989611527</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-0.2154324049688507</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.5425771992663613</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1.227614870149609</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>2.476436412371683</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.123154856941753</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.381128189211765</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.2402424599343789</v>
-      </c>
-      <c r="K34">
-        <v>1.962551576980416</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>-4.317111081681063</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-4.724761285611066</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-3.966751681375854</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-5.736943750791824</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-2.032892468270532</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-3.386174023700462</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-3.12820069143045</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-4.269086420707836</v>
-      </c>
-      <c r="J35">
-        <v>-2.546777303661799</v>
-      </c>
-      <c r="K35">
-        <v>-2.375977783556877</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>-0.4076502039300034</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3503594003052087</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-1.419832669110761</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2.28421861341053</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.9309370579806</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.188910390250612</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.04802466097322622</v>
-      </c>
-      <c r="I36">
-        <v>1.770333778019264</v>
-      </c>
-      <c r="J36">
-        <v>1.941133298124186</v>
-      </c>
-      <c r="K36">
-        <v>1.913190223187555</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>0.758009604235212</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-1.012182465180758</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>2.691868817340534</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.338587261910603</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1.596560594180616</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.4556748649032296</v>
-      </c>
-      <c r="H37">
-        <v>2.177983981949267</v>
-      </c>
-      <c r="I37">
-        <v>2.348783502054189</v>
-      </c>
-      <c r="J37">
-        <v>2.320840427117559</v>
-      </c>
-      <c r="K37">
-        <v>1.262840606288193</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>-1.77019206941597</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.933859213105322</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.5805776576753913</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.8385509899454036</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.3023347393319825</v>
-      </c>
-      <c r="G38">
-        <v>1.419974377714055</v>
-      </c>
-      <c r="H38">
-        <v>1.590773897818977</v>
-      </c>
-      <c r="I38">
-        <v>1.562830822882347</v>
-      </c>
-      <c r="J38">
-        <v>0.5048310020529811</v>
-      </c>
-      <c r="K38">
-        <v>1.653010715982887</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>3.704051282521292</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>2.350769727091361</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>2.608743059361374</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.467857330083988</v>
-      </c>
-      <c r="F39">
-        <v>3.190166447130025</v>
-      </c>
-      <c r="G39">
-        <v>3.360965967234947</v>
-      </c>
-      <c r="H39">
-        <v>3.333022892298317</v>
-      </c>
-      <c r="I39">
-        <v>2.275023071468951</v>
-      </c>
-      <c r="J39">
-        <v>3.423202785398857</v>
-      </c>
-      <c r="K39">
-        <v>2.753218941401372</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>-1.35328155542993</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-1.095308223159918</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-2.236193952437304</v>
-      </c>
-      <c r="E40">
-        <v>-0.5138848353912668</v>
-      </c>
-      <c r="F40">
-        <v>-0.3430853152863449</v>
-      </c>
-      <c r="G40">
-        <v>-0.371028390222975</v>
-      </c>
-      <c r="H40">
-        <v>-1.429028211052341</v>
-      </c>
-      <c r="I40">
-        <v>-0.280848497122435</v>
-      </c>
-      <c r="J40">
-        <v>-0.95083234111992</v>
-      </c>
-      <c r="K40">
-        <v>-1.232033129951091</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0.2579733322700122</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.8829123970073738</v>
-      </c>
-      <c r="D41">
-        <v>0.8393967200386636</v>
-      </c>
-      <c r="E41">
-        <v>1.010196240143586</v>
-      </c>
-      <c r="F41">
-        <v>0.9822531652069555</v>
-      </c>
-      <c r="G41">
-        <v>-0.0757466556224102</v>
-      </c>
-      <c r="H41">
-        <v>1.072433058307495</v>
-      </c>
-      <c r="I41">
-        <v>0.4024492143100105</v>
-      </c>
-      <c r="J41">
-        <v>0.1212484254788393</v>
-      </c>
-      <c r="K41">
-        <v>-0.01792365096062551</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>-1.140885729277386</v>
-      </c>
-      <c r="C42">
-        <v>0.5814233877686514</v>
-      </c>
-      <c r="D42">
-        <v>0.7522229078735734</v>
-      </c>
-      <c r="E42">
-        <v>0.7242798329369433</v>
-      </c>
-      <c r="F42">
-        <v>-0.3337199878924224</v>
-      </c>
-      <c r="G42">
-        <v>0.8144597260374833</v>
-      </c>
-      <c r="H42">
-        <v>0.1444758820399983</v>
-      </c>
-      <c r="I42">
-        <v>-0.1367249067911729</v>
-      </c>
-      <c r="J42">
-        <v>-0.2758969832306377</v>
-      </c>
-      <c r="K42">
-        <v>-0.4959745458352103</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1.722309117046037</v>
-      </c>
-      <c r="C43">
-        <v>1.893108637150959</v>
-      </c>
-      <c r="D43">
-        <v>1.865165562214329</v>
-      </c>
-      <c r="E43">
-        <v>0.8071657413849636</v>
-      </c>
-      <c r="F43">
-        <v>1.955345455314869</v>
-      </c>
-      <c r="G43">
-        <v>1.285361611317384</v>
-      </c>
-      <c r="H43">
-        <v>1.004160822486213</v>
-      </c>
-      <c r="I43">
-        <v>0.8649887460467482</v>
-      </c>
-      <c r="J43">
-        <v>0.6449111834421757</v>
-      </c>
-      <c r="K43">
-        <v>0.7839250751782174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.1707995201049219</v>
-      </c>
-      <c r="C44">
-        <v>0.1428564451682919</v>
-      </c>
-      <c r="D44">
-        <v>-0.9151433756610738</v>
-      </c>
-      <c r="E44">
-        <v>0.2330363382688319</v>
-      </c>
-      <c r="F44">
-        <v>-0.4369475057286532</v>
-      </c>
-      <c r="G44">
-        <v>-0.7181482945598243</v>
-      </c>
-      <c r="H44">
-        <v>-0.8573203709992891</v>
-      </c>
-      <c r="I44">
-        <v>-1.077397933603862</v>
-      </c>
-      <c r="J44">
-        <v>-0.93838404186782</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.02794307493663006</v>
-      </c>
-      <c r="C45">
-        <v>-1.085942895765996</v>
-      </c>
-      <c r="D45">
-        <v>0.06223681816390991</v>
-      </c>
-      <c r="E45">
-        <v>-0.6077470258335751</v>
-      </c>
-      <c r="F45">
-        <v>-0.8889478146647463</v>
-      </c>
-      <c r="G45">
-        <v>-1.028119891104211</v>
-      </c>
-      <c r="H45">
-        <v>-1.248197453708784</v>
-      </c>
-      <c r="I45">
-        <v>-1.109183561972742</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-1.057999820829366</v>
-      </c>
-      <c r="C46">
-        <v>0.09017989310053998</v>
-      </c>
-      <c r="D46">
-        <v>-0.579803950896945</v>
-      </c>
-      <c r="E46">
-        <v>-0.8610047397281162</v>
-      </c>
-      <c r="F46">
-        <v>-1.000176816167581</v>
-      </c>
-      <c r="G46">
-        <v>-1.220254378772154</v>
-      </c>
-      <c r="H46">
-        <v>-1.081240487036112</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>1.148179713929906</v>
-      </c>
-      <c r="C47">
-        <v>0.4781958699324207</v>
-      </c>
-      <c r="D47">
-        <v>0.1969950811012495</v>
-      </c>
-      <c r="E47">
-        <v>0.05782300466178469</v>
-      </c>
-      <c r="F47">
-        <v>-0.1622545579427879</v>
-      </c>
-      <c r="G47">
-        <v>-0.02324066620674611</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>-0.669983843997485</v>
-      </c>
-      <c r="C48">
-        <v>-0.9511846328286562</v>
-      </c>
-      <c r="D48">
-        <v>-1.090356709268121</v>
-      </c>
-      <c r="E48">
-        <v>-1.310434271872694</v>
-      </c>
-      <c r="F48">
-        <v>-1.171420380136652</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.2812007888311712</v>
-      </c>
-      <c r="C49">
-        <v>-0.420372865270636</v>
-      </c>
-      <c r="D49">
-        <v>-0.6404504278752086</v>
-      </c>
-      <c r="E49">
-        <v>-0.5014365361391668</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.1391720764394648</v>
-      </c>
-      <c r="C50">
-        <v>-0.3592496390440373</v>
-      </c>
-      <c r="D50">
-        <v>-0.2202357473079956</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.2200775626045726</v>
-      </c>
-      <c r="C51">
-        <v>-0.08106367086853081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>0.1390138917360418</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.093584638548791</v>
+        <v>1.478587814708774</v>
       </c>
       <c r="C2">
-        <v>-3.9299002821854</v>
+        <v>-0.2919075148175523</v>
       </c>
       <c r="D2">
-        <v>3.955808773199863</v>
+        <v>-0.291673701106879</v>
       </c>
       <c r="E2">
-        <v>0.2800700137360081</v>
+        <v>-0.2487263532549377</v>
       </c>
       <c r="F2">
-        <v>1.831229714613301</v>
+        <v>-0.2494663573075115</v>
       </c>
       <c r="G2">
-        <v>3.1482358665139</v>
+        <v>-0.1860849033133576</v>
       </c>
       <c r="H2">
-        <v>-0.691828055922898</v>
+        <v>-0.2972379936667267</v>
       </c>
       <c r="I2">
-        <v>-0.927892787055939</v>
+        <v>-0.2084400215953934</v>
       </c>
       <c r="J2">
-        <v>1.51340499208942</v>
+        <v>-0.1643227926902995</v>
       </c>
       <c r="K2">
-        <v>4.381095299720741</v>
+        <v>0.5838037097702511</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.885709055385263</v>
+        <v>3.638226581078521</v>
       </c>
       <c r="C3">
-        <v>4.209970295921408</v>
+        <v>3.681173928930463</v>
       </c>
       <c r="D3">
-        <v>5.761129996798701</v>
+        <v>3.680433924877889</v>
       </c>
       <c r="E3">
-        <v>7.078136148699301</v>
+        <v>3.743815378872043</v>
       </c>
       <c r="F3">
-        <v>3.238072226262502</v>
+        <v>3.632662288518674</v>
       </c>
       <c r="G3">
-        <v>3.002007495129461</v>
+        <v>3.721460260590007</v>
       </c>
       <c r="H3">
-        <v>5.44330527427482</v>
+        <v>3.765577489495101</v>
       </c>
       <c r="I3">
-        <v>8.310995581906141</v>
+        <v>4.513703991955651</v>
       </c>
       <c r="J3">
-        <v>-2.365124502439713</v>
+        <v>4.057039432263778</v>
       </c>
       <c r="K3">
-        <v>4.908427384937752</v>
+        <v>3.969213816461064</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.551159700877293</v>
+        <v>-0.5295363710435197</v>
       </c>
       <c r="C4">
-        <v>2.868165852777892</v>
+        <v>-0.4661549170493657</v>
       </c>
       <c r="D4">
-        <v>-0.9718980696589061</v>
+        <v>-0.5773080074027348</v>
       </c>
       <c r="E4">
-        <v>-1.207962800791947</v>
+        <v>-0.4885100353314015</v>
       </c>
       <c r="F4">
-        <v>1.233334978353412</v>
+        <v>-0.4443928064263076</v>
       </c>
       <c r="G4">
-        <v>4.101025285984733</v>
+        <v>0.303733696034243</v>
       </c>
       <c r="H4">
-        <v>-6.575094798361121</v>
+        <v>-0.1529308636576303</v>
       </c>
       <c r="I4">
-        <v>0.698457089016344</v>
+        <v>-0.2407564794603445</v>
       </c>
       <c r="J4">
-        <v>2.869005940280999</v>
+        <v>-0.2413686998706623</v>
       </c>
       <c r="K4">
-        <v>-5.912309383018765</v>
+        <v>0.474793267637466</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.840063922436798</v>
+        <v>-3.445473860180627</v>
       </c>
       <c r="C5">
-        <v>-4.076128653569839</v>
+        <v>-3.356675888109293</v>
       </c>
       <c r="D5">
-        <v>-1.63483087442448</v>
+        <v>-3.312558659204199</v>
       </c>
       <c r="E5">
-        <v>1.232859433206841</v>
+        <v>-2.564432156743649</v>
       </c>
       <c r="F5">
-        <v>-9.443260651139013</v>
+        <v>-3.021096716435522</v>
       </c>
       <c r="G5">
-        <v>-2.169708763761548</v>
+        <v>-3.108922332238236</v>
       </c>
       <c r="H5">
-        <v>0.0008400875031071564</v>
+        <v>-3.109534552648554</v>
       </c>
       <c r="I5">
-        <v>-8.780475235796656</v>
+        <v>-2.393372585140426</v>
       </c>
       <c r="J5">
-        <v>-2.215144094714176</v>
+        <v>-1.797701590723022</v>
       </c>
       <c r="K5">
-        <v>-1.920118377169089</v>
+        <v>-1.527644048018714</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.441297779145359</v>
+        <v>0.7635699943656395</v>
       </c>
       <c r="C6">
-        <v>5.308988086776679</v>
+        <v>1.51169649682619</v>
       </c>
       <c r="D6">
-        <v>-5.367131997569174</v>
+        <v>1.055031937134317</v>
       </c>
       <c r="E6">
-        <v>1.906419889808291</v>
+        <v>0.9672063213316027</v>
       </c>
       <c r="F6">
-        <v>4.076968741072946</v>
+        <v>0.9665941009212848</v>
       </c>
       <c r="G6">
-        <v>-4.704346582226817</v>
+        <v>1.682756068429413</v>
       </c>
       <c r="H6">
-        <v>1.860984558855663</v>
+        <v>2.278427062846817</v>
       </c>
       <c r="I6">
-        <v>2.15601027640075</v>
+        <v>2.548484605551125</v>
       </c>
       <c r="J6">
-        <v>-0.414576081520849</v>
+        <v>2.397840812227685</v>
       </c>
       <c r="K6">
-        <v>2.832914289880847</v>
+        <v>0.1815367702448472</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-10.67612008434585</v>
+        <v>-4.253956149642363</v>
       </c>
       <c r="C7">
-        <v>-3.402568196968389</v>
+        <v>-4.341781765445077</v>
       </c>
       <c r="D7">
-        <v>-1.232019345703734</v>
+        <v>-4.342393985855395</v>
       </c>
       <c r="E7">
-        <v>-10.0133346690035</v>
+        <v>-3.626232018347267</v>
       </c>
       <c r="F7">
-        <v>-3.448003527921017</v>
+        <v>-3.030561023929863</v>
       </c>
       <c r="G7">
-        <v>-3.15297781037593</v>
+        <v>-2.760503481225555</v>
       </c>
       <c r="H7">
-        <v>-5.723564168297528</v>
+        <v>-2.911147274548995</v>
       </c>
       <c r="I7">
-        <v>-2.476073796895833</v>
+        <v>-5.127451316531833</v>
       </c>
       <c r="J7">
-        <v>-2.739671168633763</v>
+        <v>-4.970650734586684</v>
       </c>
       <c r="K7">
-        <v>-5.350192146326137</v>
+        <v>-4.580893809768284</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.170548851264655</v>
+        <v>-0.9398257888870063</v>
       </c>
       <c r="C8">
-        <v>-6.610766472035109</v>
+        <v>-0.223663821378878</v>
       </c>
       <c r="D8">
-        <v>-0.04543533095262831</v>
+        <v>0.3720071730385257</v>
       </c>
       <c r="E8">
-        <v>0.2495903865924589</v>
+        <v>0.6420647157428339</v>
       </c>
       <c r="F8">
-        <v>-2.32099597132914</v>
+        <v>0.4914209224193939</v>
       </c>
       <c r="G8">
-        <v>0.9264944000725559</v>
+        <v>-1.724883119563444</v>
       </c>
       <c r="H8">
-        <v>0.6628970283346258</v>
+        <v>-1.568082537618295</v>
       </c>
       <c r="I8">
-        <v>-1.947623949357748</v>
+        <v>-1.178325612799895</v>
       </c>
       <c r="J8">
-        <v>0.3134061192806712</v>
+        <v>-1.062051838181986</v>
       </c>
       <c r="K8">
-        <v>1.667543063003066</v>
+        <v>-0.8930832304216381</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.56533114108248</v>
+        <v>6.982773645073634</v>
       </c>
       <c r="C9">
-        <v>6.860356858627568</v>
+        <v>7.252831187777943</v>
       </c>
       <c r="D9">
-        <v>4.289770500705968</v>
+        <v>7.102187394454503</v>
       </c>
       <c r="E9">
-        <v>7.537260872107664</v>
+        <v>4.885883352471665</v>
       </c>
       <c r="F9">
-        <v>7.273663500369734</v>
+        <v>5.042683934416814</v>
       </c>
       <c r="G9">
-        <v>4.663142522677361</v>
+        <v>5.432440859235213</v>
       </c>
       <c r="H9">
-        <v>6.92417259131578</v>
+        <v>5.548714633853122</v>
       </c>
       <c r="I9">
-        <v>8.278309535038176</v>
+        <v>5.717683241613471</v>
       </c>
       <c r="J9">
-        <v>4.279771025070587</v>
+        <v>5.64810960791486</v>
       </c>
       <c r="K9">
-        <v>3.833239415386485</v>
+        <v>5.624940092236641</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-2.570586357921599</v>
+        <v>0.241830535826935</v>
       </c>
       <c r="C10">
-        <v>0.676904013480097</v>
+        <v>-1.974473506155903</v>
       </c>
       <c r="D10">
-        <v>0.4133066417421669</v>
+        <v>-1.817672924210754</v>
       </c>
       <c r="E10">
-        <v>-2.197214335950207</v>
+        <v>-1.427915999392354</v>
       </c>
       <c r="F10">
-        <v>0.06381573268821228</v>
+        <v>-1.311642224774445</v>
       </c>
       <c r="G10">
-        <v>1.417952676410607</v>
+        <v>-1.142673617014097</v>
       </c>
       <c r="H10">
-        <v>-2.580585833556981</v>
+        <v>-1.212247250712707</v>
       </c>
       <c r="I10">
-        <v>-3.027117443241082</v>
+        <v>-1.235416766390927</v>
       </c>
       <c r="J10">
-        <v>-0.8650624912098266</v>
+        <v>-1.235507560100345</v>
       </c>
       <c r="K10">
-        <v>-4.310500448812462</v>
+        <v>-1.058979366149842</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.2635973717379301</v>
+        <v>-2.494576937690851</v>
       </c>
       <c r="C11">
-        <v>-2.874118349430304</v>
+        <v>-2.104820012872451</v>
       </c>
       <c r="D11">
-        <v>-0.6130882807918847</v>
+        <v>-1.988546238254542</v>
       </c>
       <c r="E11">
-        <v>0.7410486629305102</v>
+        <v>-1.819577630494194</v>
       </c>
       <c r="F11">
-        <v>-3.257489847037078</v>
+        <v>-1.889151264192804</v>
       </c>
       <c r="G11">
-        <v>-3.704021456721179</v>
+        <v>-1.912320779871024</v>
       </c>
       <c r="H11">
-        <v>-1.541966504689924</v>
+        <v>-1.912411573580442</v>
       </c>
       <c r="I11">
-        <v>-4.98740446229256</v>
+        <v>-1.735883379629939</v>
       </c>
       <c r="J11">
-        <v>2.547967972693116</v>
+        <v>-1.917877041970072</v>
       </c>
       <c r="K11">
-        <v>-0.9985800908963962</v>
+        <v>-1.975312553860831</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2.261030068638419</v>
+        <v>0.8855721111757617</v>
       </c>
       <c r="C12">
-        <v>3.615167012360814</v>
+        <v>1.05454071893611</v>
       </c>
       <c r="D12">
-        <v>-0.3833714976067739</v>
+        <v>0.9849670852374999</v>
       </c>
       <c r="E12">
-        <v>-0.8299031072908751</v>
+        <v>0.9617975695592804</v>
       </c>
       <c r="F12">
-        <v>1.33215184474038</v>
+        <v>0.9617067758498621</v>
       </c>
       <c r="G12">
-        <v>-2.113286112862255</v>
+        <v>1.138234969800365</v>
       </c>
       <c r="H12">
-        <v>5.42208632212342</v>
+        <v>0.9562413074602318</v>
       </c>
       <c r="I12">
-        <v>1.875538258533908</v>
+        <v>0.8988057955694728</v>
       </c>
       <c r="J12">
-        <v>0.2017760632653849</v>
+        <v>0.8985872264301946</v>
       </c>
       <c r="K12">
-        <v>-0.172466203975489</v>
+        <v>0.6411463508594153</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-3.998538509967588</v>
+        <v>-2.630199927123314</v>
       </c>
       <c r="C13">
-        <v>-4.445070119651689</v>
+        <v>-2.653369442801534</v>
       </c>
       <c r="D13">
-        <v>-2.283015167620434</v>
+        <v>-2.653460236510952</v>
       </c>
       <c r="E13">
-        <v>-5.728453125223069</v>
+        <v>-2.476932042560449</v>
       </c>
       <c r="F13">
-        <v>1.806919309762606</v>
+        <v>-2.658925704900582</v>
       </c>
       <c r="G13">
-        <v>-1.739628753826906</v>
+        <v>-2.716361216791341</v>
       </c>
       <c r="H13">
-        <v>-3.41339094909543</v>
+        <v>-2.71657978593062</v>
       </c>
       <c r="I13">
-        <v>-3.787633216336303</v>
+        <v>-2.974020661501399</v>
       </c>
       <c r="J13">
-        <v>-0.7865031244705563</v>
+        <v>-3.004512560810326</v>
       </c>
       <c r="K13">
-        <v>-1.762665076269329</v>
+        <v>-3.04775662865633</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2.162054952031256</v>
+        <v>1.791609883140737</v>
       </c>
       <c r="C14">
-        <v>-1.28338300557138</v>
+        <v>1.96813807709124</v>
       </c>
       <c r="D14">
-        <v>6.251989429414295</v>
+        <v>1.786144414751107</v>
       </c>
       <c r="E14">
-        <v>2.705441365824783</v>
+        <v>1.728708902860348</v>
       </c>
       <c r="F14">
-        <v>1.03167917055626</v>
+        <v>1.72849033372107</v>
       </c>
       <c r="G14">
-        <v>0.6574369033153862</v>
+        <v>1.47104945815029</v>
       </c>
       <c r="H14">
-        <v>3.658566995181133</v>
+        <v>1.440557558841363</v>
       </c>
       <c r="I14">
-        <v>2.682405043382361</v>
+        <v>1.397313490995359</v>
       </c>
       <c r="J14">
-        <v>0.3874356032970072</v>
+        <v>1.397259079753625</v>
       </c>
       <c r="K14">
-        <v>0.03194204313337012</v>
+        <v>2.019808281371397</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>7.535372434985675</v>
+        <v>3.069527420322487</v>
       </c>
       <c r="C15">
-        <v>3.988824371396163</v>
+        <v>3.012091908431728</v>
       </c>
       <c r="D15">
-        <v>2.31506217612764</v>
+        <v>3.01187333929245</v>
       </c>
       <c r="E15">
-        <v>1.940819908886766</v>
+        <v>2.75443246372167</v>
       </c>
       <c r="F15">
-        <v>4.941950000752513</v>
+        <v>2.723940564412743</v>
       </c>
       <c r="G15">
-        <v>3.96578804895374</v>
+        <v>2.680696496566739</v>
       </c>
       <c r="H15">
-        <v>1.670818608868387</v>
+        <v>2.680642085325005</v>
       </c>
       <c r="I15">
-        <v>1.31532504870475</v>
+        <v>3.303191286942777</v>
       </c>
       <c r="J15">
-        <v>5.547995707475309</v>
+        <v>3.134268475554691</v>
       </c>
       <c r="K15">
-        <v>3.361655565769908</v>
+        <v>3.023128200670314</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1.673762195268523</v>
+        <v>-0.9769510321037131</v>
       </c>
       <c r="C16">
-        <v>-2.048004462509397</v>
+        <v>-1.234391907674492</v>
       </c>
       <c r="D16">
-        <v>0.9531256293563501</v>
+        <v>-1.26488380698342</v>
       </c>
       <c r="E16">
-        <v>-0.02303632244242237</v>
+        <v>-1.308127874829424</v>
       </c>
       <c r="F16">
-        <v>-2.318005762527775</v>
+        <v>-1.308182286071158</v>
       </c>
       <c r="G16">
-        <v>-2.673499322691413</v>
+        <v>-0.6856330844533858</v>
       </c>
       <c r="H16">
-        <v>1.559171336079146</v>
+        <v>-0.8545558958414716</v>
       </c>
       <c r="I16">
-        <v>-0.6271688056262548</v>
+        <v>-0.9656961707258489</v>
       </c>
       <c r="J16">
-        <v>-1.171899658114114</v>
+        <v>-0.9689314161109905</v>
       </c>
       <c r="K16">
-        <v>-2.648291476919099</v>
+        <v>-0.9755085743021539</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>3.001130091865747</v>
+        <v>0.7831206555259769</v>
       </c>
       <c r="C17">
-        <v>2.024968140066974</v>
+        <v>0.7398765876799729</v>
       </c>
       <c r="D17">
-        <v>-0.270001300018379</v>
+        <v>0.7398221764382384</v>
       </c>
       <c r="E17">
-        <v>-0.6254948601820161</v>
+        <v>1.362371378056011</v>
       </c>
       <c r="F17">
-        <v>3.607175798588543</v>
+        <v>1.193448566667925</v>
       </c>
       <c r="G17">
-        <v>1.420835656883142</v>
+        <v>1.082308291783548</v>
       </c>
       <c r="H17">
-        <v>0.8761048043952826</v>
+        <v>1.079073046398406</v>
       </c>
       <c r="I17">
-        <v>-0.6002870144097021</v>
+        <v>1.072495888207243</v>
       </c>
       <c r="J17">
-        <v>1.204985302679873</v>
+        <v>1.071759419757342</v>
       </c>
       <c r="K17">
-        <v>2.131883659316486</v>
+        <v>1.032394765968235</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-2.294969440085353</v>
+        <v>-1.285145963628736</v>
       </c>
       <c r="C18">
-        <v>-2.65046300024899</v>
+        <v>-0.6625967620109634</v>
       </c>
       <c r="D18">
-        <v>1.582207658521569</v>
+        <v>-0.8315195733990492</v>
       </c>
       <c r="E18">
-        <v>-0.6041324831838324</v>
+        <v>-0.9426598482834265</v>
       </c>
       <c r="F18">
-        <v>-1.148863335671692</v>
+        <v>-0.9458950936685682</v>
       </c>
       <c r="G18">
-        <v>-2.625255154476676</v>
+        <v>-0.9524722518597315</v>
       </c>
       <c r="H18">
-        <v>-0.8199828373871014</v>
+        <v>-0.9532087203096324</v>
       </c>
       <c r="I18">
-        <v>0.1069155192495117</v>
+        <v>-0.9925733740987397</v>
       </c>
       <c r="J18">
-        <v>0.03225072808909601</v>
+        <v>-0.9928798017034239</v>
       </c>
       <c r="K18">
-        <v>-2.39717264107641</v>
+        <v>-0.9698862401147892</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4.232670658770559</v>
+        <v>1.818943426849941</v>
       </c>
       <c r="C19">
-        <v>2.046330517065158</v>
+        <v>1.707803151965564</v>
       </c>
       <c r="D19">
-        <v>1.501599664577299</v>
+        <v>1.704567906580422</v>
       </c>
       <c r="E19">
-        <v>0.02520784577231394</v>
+        <v>1.697990748389259</v>
       </c>
       <c r="F19">
-        <v>1.830480162861889</v>
+        <v>1.697254279939358</v>
       </c>
       <c r="G19">
-        <v>2.757378519498502</v>
+        <v>1.657889626150251</v>
       </c>
       <c r="H19">
-        <v>2.682713728338086</v>
+        <v>1.657583198545566</v>
       </c>
       <c r="I19">
-        <v>0.2532903591725808</v>
+        <v>1.680576760134201</v>
       </c>
       <c r="J19">
-        <v>1.716233447054407</v>
+        <v>1.680246268736965</v>
       </c>
       <c r="K19">
-        <v>1.425384209656022</v>
+        <v>1.668238505414308</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.5447308524878594</v>
+        <v>-0.3417626104847358</v>
       </c>
       <c r="C20">
-        <v>-2.021122671292844</v>
+        <v>-0.3483397686758991</v>
       </c>
       <c r="D20">
-        <v>-0.215850354203269</v>
+        <v>-0.3490762371258</v>
       </c>
       <c r="E20">
-        <v>0.7110480024333441</v>
+        <v>-0.3884408909149073</v>
       </c>
       <c r="F20">
-        <v>0.6363832112729284</v>
+        <v>-0.3887473185195915</v>
       </c>
       <c r="G20">
-        <v>-1.793040157892577</v>
+        <v>-0.3657537569309568</v>
       </c>
       <c r="H20">
-        <v>-0.3300970700107513</v>
+        <v>-0.3660842483281925</v>
       </c>
       <c r="I20">
-        <v>-0.620946307409136</v>
+        <v>-0.3780920116508497</v>
       </c>
       <c r="J20">
-        <v>-1.005269381356413</v>
+        <v>-0.3784749183556784</v>
       </c>
       <c r="K20">
-        <v>-1.620946307409136</v>
+        <v>-0.3266780172471755</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1.805272317089575</v>
+        <v>1.672046434167044</v>
       </c>
       <c r="C21">
-        <v>2.732170673726188</v>
+        <v>1.632681780377937</v>
       </c>
       <c r="D21">
-        <v>2.657505882565772</v>
+        <v>1.632375352773253</v>
       </c>
       <c r="E21">
-        <v>0.2280825134002669</v>
+        <v>1.655368914361887</v>
       </c>
       <c r="F21">
-        <v>1.691025601282093</v>
+        <v>1.655038422964652</v>
       </c>
       <c r="G21">
-        <v>1.400176363883708</v>
+        <v>1.643030659641994</v>
       </c>
       <c r="H21">
-        <v>1.015853289936431</v>
+        <v>1.642647752937166</v>
       </c>
       <c r="I21">
-        <v>0.4001763638837081</v>
+        <v>1.694444654045669</v>
       </c>
       <c r="J21">
-        <v>3.326591110364234</v>
+        <v>1.712059013965075</v>
       </c>
       <c r="K21">
-        <v>1.127195992453338</v>
+        <v>1.736181548178295</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.07466479116041569</v>
+        <v>-1.099795320952936</v>
       </c>
       <c r="C22">
-        <v>-2.504088160325921</v>
+        <v>-1.076801759364301</v>
       </c>
       <c r="D22">
-        <v>-1.041145072444095</v>
+        <v>-1.077132250761537</v>
       </c>
       <c r="E22">
-        <v>-1.33199430984248</v>
+        <v>-1.089140014084194</v>
       </c>
       <c r="F22">
-        <v>-1.716317383789757</v>
+        <v>-1.089522920789022</v>
       </c>
       <c r="G22">
-        <v>-2.33199430984248</v>
+        <v>-1.03772601968052</v>
       </c>
       <c r="H22">
-        <v>0.5944204366380459</v>
+        <v>-1.020111659761113</v>
       </c>
       <c r="I22">
-        <v>-1.60497468127285</v>
+        <v>-0.9959891255478937</v>
       </c>
       <c r="J22">
-        <v>-1.032444361206231</v>
+        <v>-0.9965164676041383</v>
       </c>
       <c r="K22">
-        <v>-4.53199430984248</v>
+        <v>-1.024366230650088</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-2.429423369165506</v>
+        <v>-1.002136968203885</v>
       </c>
       <c r="C23">
-        <v>-0.9664802812836797</v>
+        <v>-1.002467459601121</v>
       </c>
       <c r="D23">
-        <v>-1.257329518682064</v>
+        <v>-1.014475222923778</v>
       </c>
       <c r="E23">
-        <v>-1.641652592629341</v>
+        <v>-1.014858129628607</v>
       </c>
       <c r="F23">
-        <v>-2.257329518682064</v>
+        <v>-0.9630612285201039</v>
       </c>
       <c r="G23">
-        <v>0.6690852277984616</v>
+        <v>-0.9454468686006976</v>
       </c>
       <c r="H23">
-        <v>-1.530309890112434</v>
+        <v>-0.921324334387478</v>
       </c>
       <c r="I23">
-        <v>-0.9577795700458154</v>
+        <v>-0.9218516764437226</v>
       </c>
       <c r="J23">
-        <v>-4.457329518682064</v>
+        <v>-0.9497014394896723</v>
       </c>
       <c r="K23">
-        <v>3.864803897743683</v>
+        <v>-0.9494930699436992</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1.462943087881826</v>
+        <v>1.426955909564385</v>
       </c>
       <c r="C24">
-        <v>1.172093850483441</v>
+        <v>1.414948146241727</v>
       </c>
       <c r="D24">
-        <v>0.7877707765361641</v>
+        <v>1.414565239536899</v>
       </c>
       <c r="E24">
-        <v>0.1720938504834413</v>
+        <v>1.466362140645402</v>
       </c>
       <c r="F24">
-        <v>3.098508596963967</v>
+        <v>1.483976500564808</v>
       </c>
       <c r="G24">
-        <v>0.8991134790530713</v>
+        <v>1.508099034778028</v>
       </c>
       <c r="H24">
-        <v>1.47164379911969</v>
+        <v>1.507571692721783</v>
       </c>
       <c r="I24">
-        <v>-2.027906149516558</v>
+        <v>1.479721929675833</v>
       </c>
       <c r="J24">
-        <v>6.294227266909189</v>
+        <v>1.479930299221806</v>
       </c>
       <c r="K24">
-        <v>2.466277495859984</v>
+        <v>1.479524001938828</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.2908492373983848</v>
+        <v>-0.04799494164009843</v>
       </c>
       <c r="C25">
-        <v>-0.6751723113456618</v>
+        <v>-0.04837784834492709</v>
       </c>
       <c r="D25">
-        <v>-1.290849237398385</v>
+        <v>0.003419052763575792</v>
       </c>
       <c r="E25">
-        <v>1.635565509082141</v>
+        <v>0.02103341268298209</v>
       </c>
       <c r="F25">
-        <v>-0.5638296088287547</v>
+        <v>0.04515594689620173</v>
       </c>
       <c r="G25">
-        <v>0.008700711237864311</v>
+        <v>0.04462860483995712</v>
       </c>
       <c r="H25">
-        <v>-3.490849237398384</v>
+        <v>0.01677884179400735</v>
       </c>
       <c r="I25">
-        <v>4.831284179027363</v>
+        <v>0.01698721133998049</v>
       </c>
       <c r="J25">
-        <v>1.003334407978159</v>
+        <v>0.01658091405700191</v>
       </c>
       <c r="K25">
-        <v>-0.2710082461318279</v>
+        <v>0.01617508375490218</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.384323073947277</v>
+        <v>0.2424713890534577</v>
       </c>
       <c r="C26">
-        <v>-0.9999999999999999</v>
+        <v>0.2942682901619605</v>
       </c>
       <c r="D26">
-        <v>1.926414746480526</v>
+        <v>0.3118826500813668</v>
       </c>
       <c r="E26">
-        <v>-0.2729803714303699</v>
+        <v>0.3360051842945865</v>
       </c>
       <c r="F26">
-        <v>0.2995499486362491</v>
+        <v>0.3354778422383419</v>
       </c>
       <c r="G26">
-        <v>-3.2</v>
+        <v>0.3076280791923921</v>
       </c>
       <c r="H26">
-        <v>5.122133416425748</v>
+        <v>0.3078364487383652</v>
       </c>
       <c r="I26">
-        <v>1.294183645376543</v>
+        <v>0.3074301514553867</v>
       </c>
       <c r="J26">
-        <v>0.01984099126655681</v>
+        <v>0.3070243211532869</v>
       </c>
       <c r="K26">
-        <v>4.529169871908772</v>
+        <v>0.5791331216483627</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.6156769260527228</v>
+        <v>0.6785913641092376</v>
       </c>
       <c r="C27">
-        <v>2.310737820427803</v>
+        <v>0.6962057240286439</v>
       </c>
       <c r="D27">
-        <v>0.1113427025169071</v>
+        <v>0.7203282582418635</v>
       </c>
       <c r="E27">
-        <v>0.6838730225835261</v>
+        <v>0.7198009161856189</v>
       </c>
       <c r="F27">
-        <v>-2.815676926052722</v>
+        <v>0.6919511531396692</v>
       </c>
       <c r="G27">
-        <v>5.506456490373025</v>
+        <v>0.6921595226856423</v>
       </c>
       <c r="H27">
-        <v>1.67850671932382</v>
+        <v>0.6917532254026637</v>
       </c>
       <c r="I27">
-        <v>0.4041640652138339</v>
+        <v>0.691347395100564</v>
       </c>
       <c r="J27">
-        <v>4.913492945856049</v>
+        <v>0.9634561955956398</v>
       </c>
       <c r="K27">
-        <v>0.5963818641749865</v>
+        <v>0.9632277652533217</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>2.926414746480526</v>
+        <v>1.311882650081367</v>
       </c>
       <c r="C28">
-        <v>0.72701962856963</v>
+        <v>1.336005184294586</v>
       </c>
       <c r="D28">
-        <v>1.299549948636249</v>
+        <v>1.335477842238342</v>
       </c>
       <c r="E28">
-        <v>-2.2</v>
+        <v>1.307628079192392</v>
       </c>
       <c r="F28">
-        <v>6.122133416425747</v>
+        <v>1.307836448738365</v>
       </c>
       <c r="G28">
-        <v>2.294183645376543</v>
+        <v>1.307430151455387</v>
       </c>
       <c r="H28">
-        <v>1.019840991266557</v>
+        <v>1.307024321153287</v>
       </c>
       <c r="I28">
-        <v>5.529169871908772</v>
+        <v>1.579133121648363</v>
       </c>
       <c r="J28">
-        <v>1.212058790227709</v>
+        <v>1.578904691306044</v>
       </c>
       <c r="K28">
-        <v>0.804408586297706</v>
+        <v>1.578787841654554</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-2.199395117910896</v>
+        <v>-1.59040956218594</v>
       </c>
       <c r="C29">
-        <v>-1.626864797844277</v>
+        <v>-1.590936904242184</v>
       </c>
       <c r="D29">
-        <v>-5.126414746480526</v>
+        <v>-1.618786667288134</v>
       </c>
       <c r="E29">
-        <v>3.195718669945221</v>
+        <v>-1.618578297742161</v>
       </c>
       <c r="F29">
-        <v>-0.6322311011039827</v>
+        <v>-1.618984595025139</v>
       </c>
       <c r="G29">
-        <v>-1.906573755213969</v>
+        <v>-1.619390425327239</v>
       </c>
       <c r="H29">
-        <v>2.602755125428246</v>
+        <v>-1.347281624832163</v>
       </c>
       <c r="I29">
-        <v>-1.714355956252817</v>
+        <v>-1.347510055174481</v>
       </c>
       <c r="J29">
-        <v>-2.12200616018282</v>
+        <v>-1.347626904825972</v>
       </c>
       <c r="K29">
-        <v>-1.363996555947608</v>
+        <v>-1.347743650551962</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.572530320066619</v>
+        <v>0.6084582136687118</v>
       </c>
       <c r="C30">
-        <v>-2.92701962856963</v>
+        <v>0.580608450622762</v>
       </c>
       <c r="D30">
-        <v>5.395113787856118</v>
+        <v>0.5808168201687351</v>
       </c>
       <c r="E30">
-        <v>1.567164016806913</v>
+        <v>0.5804105228857566</v>
       </c>
       <c r="F30">
-        <v>0.2928213626969267</v>
+        <v>0.5800046925836568</v>
       </c>
       <c r="G30">
-        <v>4.802150243339142</v>
+        <v>0.8521134930787326</v>
       </c>
       <c r="H30">
-        <v>0.4850391616580794</v>
+        <v>0.8518850627364145</v>
       </c>
       <c r="I30">
-        <v>0.07738895772807597</v>
+        <v>0.8517682130849238</v>
       </c>
       <c r="J30">
-        <v>0.835398561963288</v>
+        <v>0.8516514673589342</v>
       </c>
       <c r="K30">
-        <v>-0.9347935074526821</v>
+        <v>0.607592721491983</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-3.499549948636249</v>
+        <v>0.008078130556143037</v>
       </c>
       <c r="C31">
-        <v>4.822583467789499</v>
+        <v>0.008286500102116179</v>
       </c>
       <c r="D31">
-        <v>0.9946336967402942</v>
+        <v>0.007880202819137594</v>
       </c>
       <c r="E31">
-        <v>-0.2797089573696923</v>
+        <v>0.007474372517037864</v>
       </c>
       <c r="F31">
-        <v>4.229619923272523</v>
+        <v>0.2795831730121137</v>
       </c>
       <c r="G31">
-        <v>-0.0874911584085396</v>
+        <v>0.2793547426697955</v>
       </c>
       <c r="H31">
-        <v>-0.495141362338543</v>
+        <v>0.2792378930183049</v>
       </c>
       <c r="I31">
-        <v>0.2628682418966691</v>
+        <v>0.2791211472923152</v>
       </c>
       <c r="J31">
-        <v>-1.507323827519301</v>
+        <v>0.03506240142536399</v>
       </c>
       <c r="K31">
-        <v>2.196727455001991</v>
+        <v>0.0345460207742434</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8.322133416425746</v>
+        <v>3.507836448738365</v>
       </c>
       <c r="C32">
-        <v>4.494183645376543</v>
+        <v>3.507430151455386</v>
       </c>
       <c r="D32">
-        <v>3.219840991266556</v>
+        <v>3.507024321153287</v>
       </c>
       <c r="E32">
-        <v>7.729169871908772</v>
+        <v>3.779133121648362</v>
       </c>
       <c r="F32">
-        <v>3.412058790227709</v>
+        <v>3.778904691306044</v>
       </c>
       <c r="G32">
-        <v>3.004408586297706</v>
+        <v>3.778787841654554</v>
       </c>
       <c r="H32">
-        <v>3.762418190532918</v>
+        <v>3.778671095928564</v>
       </c>
       <c r="I32">
-        <v>1.992226121116948</v>
+        <v>3.534612350061613</v>
       </c>
       <c r="J32">
-        <v>5.69627740363824</v>
+        <v>3.534095969410492</v>
       </c>
       <c r="K32">
-        <v>4.342995848208309</v>
+        <v>3.533891694544456</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-0.9867534939211566</v>
       </c>
       <c r="C33">
-        <v>-1.274342654109986</v>
+        <v>-0.9871593242232564</v>
       </c>
       <c r="D33">
-        <v>3.234986226532229</v>
+        <v>-0.7150505237281806</v>
       </c>
       <c r="E33">
-        <v>-1.082124855148834</v>
+        <v>-0.7152789540704987</v>
       </c>
       <c r="F33">
-        <v>-1.489775059078837</v>
+        <v>-0.7153958037219894</v>
       </c>
       <c r="G33">
-        <v>-0.7317654548436252</v>
+        <v>-0.715512549447979</v>
       </c>
       <c r="H33">
-        <v>-2.501957524259595</v>
+        <v>-0.9595712953149302</v>
       </c>
       <c r="I33">
-        <v>1.202093758261697</v>
+        <v>-0.9600876759660508</v>
       </c>
       <c r="J33">
-        <v>-0.1511877971682339</v>
+        <v>-0.9602919508320866</v>
       </c>
       <c r="K33">
-        <v>0.1067855351017783</v>
+        <v>-0.9604964825970654</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.2871833298867301</v>
       </c>
       <c r="C34">
-        <v>4.509328880642215</v>
+        <v>0.5592921303818059</v>
       </c>
       <c r="D34">
-        <v>0.1922177989611527</v>
+        <v>0.5590637000394878</v>
       </c>
       <c r="E34">
-        <v>-0.2154324049688507</v>
+        <v>0.5589468503879971</v>
       </c>
       <c r="F34">
-        <v>0.5425771992663613</v>
+        <v>0.5588301046620074</v>
       </c>
       <c r="G34">
-        <v>-1.227614870149609</v>
+        <v>0.3147713587950562</v>
       </c>
       <c r="H34">
-        <v>2.476436412371683</v>
+        <v>0.3142549781439357</v>
       </c>
       <c r="I34">
-        <v>1.123154856941753</v>
+        <v>0.3140507032778999</v>
       </c>
       <c r="J34">
-        <v>1.381128189211765</v>
+        <v>0.313846171512921</v>
       </c>
       <c r="K34">
-        <v>0.2402424599343789</v>
+        <v>0.4573872896650783</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.950036750260409</v>
       </c>
       <c r="C35">
-        <v>-4.317111081681063</v>
+        <v>-3.950265180602727</v>
       </c>
       <c r="D35">
-        <v>-4.724761285611066</v>
+        <v>-3.950382030254218</v>
       </c>
       <c r="E35">
-        <v>-3.966751681375854</v>
+        <v>-3.950498775980208</v>
       </c>
       <c r="F35">
-        <v>-5.736943750791824</v>
+        <v>-4.194557521847159</v>
       </c>
       <c r="G35">
-        <v>-2.032892468270532</v>
+        <v>-4.195073902498279</v>
       </c>
       <c r="H35">
-        <v>-3.386174023700462</v>
+        <v>-4.195278177364315</v>
       </c>
       <c r="I35">
-        <v>-3.12820069143045</v>
+        <v>-4.195482709129294</v>
       </c>
       <c r="J35">
-        <v>-4.269086420707836</v>
+        <v>-4.051941590977137</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.3668459010783351</v>
       </c>
       <c r="C36">
-        <v>-0.4076502039300034</v>
+        <v>0.3667290514268445</v>
       </c>
       <c r="D36">
-        <v>0.3503594003052087</v>
+        <v>0.3666123057008548</v>
       </c>
       <c r="E36">
-        <v>-1.419832669110761</v>
+        <v>0.1225535598339036</v>
       </c>
       <c r="F36">
-        <v>2.28421861341053</v>
+        <v>0.122037179182783</v>
       </c>
       <c r="G36">
-        <v>0.9309370579806</v>
+        <v>0.1218329043167472</v>
       </c>
       <c r="H36">
-        <v>1.188910390250612</v>
+        <v>0.1216283725517684</v>
       </c>
       <c r="I36">
-        <v>0.04802466097322622</v>
+        <v>0.2651694907039256</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.7743792553568478</v>
       </c>
       <c r="C37">
-        <v>0.758009604235212</v>
+        <v>0.7742625096308582</v>
       </c>
       <c r="D37">
-        <v>-1.012182465180758</v>
+        <v>0.530203763763907</v>
       </c>
       <c r="E37">
-        <v>2.691868817340534</v>
+        <v>0.5296873831127864</v>
       </c>
       <c r="F37">
-        <v>1.338587261910603</v>
+        <v>0.5294831082467506</v>
       </c>
       <c r="G37">
-        <v>1.596560594180616</v>
+        <v>0.5292785764817718</v>
       </c>
       <c r="H37">
-        <v>0.4556748649032296</v>
+        <v>0.6728196946339291</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.01625290539564611</v>
       </c>
       <c r="C38">
-        <v>-1.77019206941597</v>
+        <v>-0.2278058404713051</v>
       </c>
       <c r="D38">
-        <v>1.933859213105322</v>
+        <v>-0.2283222211224257</v>
       </c>
       <c r="E38">
-        <v>0.5805776576753913</v>
+        <v>-0.2285264959884615</v>
       </c>
       <c r="F38">
-        <v>0.8385509899454036</v>
+        <v>-0.2287310277534403</v>
       </c>
       <c r="G38">
-        <v>-0.3023347393319825</v>
+        <v>-0.08518990960128303</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.542386228944665</v>
       </c>
       <c r="C39">
-        <v>3.704051282521292</v>
+        <v>1.541869848293544</v>
       </c>
       <c r="D39">
-        <v>2.350769727091361</v>
+        <v>1.541665573427509</v>
       </c>
       <c r="E39">
-        <v>2.608743059361374</v>
+        <v>1.54146104166253</v>
       </c>
       <c r="F39">
-        <v>1.467857330083988</v>
+        <v>1.685002159814687</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-2.162181434227747</v>
       </c>
       <c r="C40">
-        <v>-1.35328155542993</v>
+        <v>-2.162385709093783</v>
       </c>
       <c r="D40">
-        <v>-1.095308223159918</v>
+        <v>-2.162590240858762</v>
       </c>
       <c r="E40">
-        <v>-2.236193952437304</v>
+        <v>-2.019049122706605</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.8091041536638528</v>
       </c>
       <c r="C41">
-        <v>0.2579733322700122</v>
+        <v>-0.8093086854288316</v>
       </c>
       <c r="D41">
-        <v>-0.8829123970073738</v>
+        <v>-0.6657675672766743</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-1.067282017698844</v>
       </c>
       <c r="C42">
-        <v>-1.140885729277386</v>
+        <v>-0.9237408995466865</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,7 +1927,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.2171448297306994</v>
       </c>
     </row>
     <row r="44" spans="1:11">

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.478587814708774</v>
+        <v>1.093584638548791</v>
       </c>
       <c r="C2">
-        <v>-0.2919075148175523</v>
+        <v>-3.9299002821854</v>
       </c>
       <c r="D2">
-        <v>-0.291673701106879</v>
+        <v>3.955808773199863</v>
       </c>
       <c r="E2">
-        <v>-0.2487263532549377</v>
+        <v>0.2800700137360081</v>
       </c>
       <c r="F2">
-        <v>-0.2494663573075115</v>
+        <v>1.831229714613301</v>
       </c>
       <c r="G2">
-        <v>-0.1860849033133576</v>
+        <v>3.1482358665139</v>
       </c>
       <c r="H2">
-        <v>-0.2972379936667267</v>
+        <v>-0.691828055922898</v>
       </c>
       <c r="I2">
-        <v>-0.2084400215953934</v>
+        <v>-0.927892787055939</v>
       </c>
       <c r="J2">
-        <v>-0.1643227926902995</v>
+        <v>1.51340499208942</v>
       </c>
       <c r="K2">
-        <v>0.5838037097702511</v>
+        <v>4.381095299720741</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.638226581078521</v>
+        <v>7.885709055385263</v>
       </c>
       <c r="C3">
-        <v>3.681173928930463</v>
+        <v>4.209970295921408</v>
       </c>
       <c r="D3">
-        <v>3.680433924877889</v>
+        <v>5.761129996798701</v>
       </c>
       <c r="E3">
-        <v>3.743815378872043</v>
+        <v>7.078136148699301</v>
       </c>
       <c r="F3">
-        <v>3.632662288518674</v>
+        <v>3.238072226262502</v>
       </c>
       <c r="G3">
-        <v>3.721460260590007</v>
+        <v>3.002007495129461</v>
       </c>
       <c r="H3">
-        <v>3.765577489495101</v>
+        <v>5.44330527427482</v>
       </c>
       <c r="I3">
-        <v>4.513703991955651</v>
+        <v>8.310995581906141</v>
       </c>
       <c r="J3">
-        <v>4.057039432263778</v>
+        <v>-2.365124502439713</v>
       </c>
       <c r="K3">
-        <v>3.969213816461064</v>
+        <v>4.908427384937752</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.5295363710435197</v>
+        <v>1.551159700877293</v>
       </c>
       <c r="C4">
-        <v>-0.4661549170493657</v>
+        <v>2.868165852777892</v>
       </c>
       <c r="D4">
-        <v>-0.5773080074027348</v>
+        <v>-0.9718980696589061</v>
       </c>
       <c r="E4">
-        <v>-0.4885100353314015</v>
+        <v>-1.207962800791947</v>
       </c>
       <c r="F4">
-        <v>-0.4443928064263076</v>
+        <v>1.233334978353412</v>
       </c>
       <c r="G4">
-        <v>0.303733696034243</v>
+        <v>4.101025285984733</v>
       </c>
       <c r="H4">
-        <v>-0.1529308636576303</v>
+        <v>-6.575094798361121</v>
       </c>
       <c r="I4">
-        <v>-0.2407564794603445</v>
+        <v>0.698457089016344</v>
       </c>
       <c r="J4">
-        <v>-0.2413686998706623</v>
+        <v>2.869005940280999</v>
       </c>
       <c r="K4">
-        <v>0.474793267637466</v>
+        <v>-5.912309383018765</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.445473860180627</v>
+        <v>-3.840063922436798</v>
       </c>
       <c r="C5">
-        <v>-3.356675888109293</v>
+        <v>-4.076128653569839</v>
       </c>
       <c r="D5">
-        <v>-3.312558659204199</v>
+        <v>-1.63483087442448</v>
       </c>
       <c r="E5">
-        <v>-2.564432156743649</v>
+        <v>1.232859433206841</v>
       </c>
       <c r="F5">
-        <v>-3.021096716435522</v>
+        <v>-9.443260651139013</v>
       </c>
       <c r="G5">
-        <v>-3.108922332238236</v>
+        <v>-2.169708763761548</v>
       </c>
       <c r="H5">
-        <v>-3.109534552648554</v>
+        <v>0.0008400875031071564</v>
       </c>
       <c r="I5">
-        <v>-2.393372585140426</v>
+        <v>-8.780475235796656</v>
       </c>
       <c r="J5">
-        <v>-1.797701590723022</v>
+        <v>-2.215144094714176</v>
       </c>
       <c r="K5">
-        <v>-1.527644048018714</v>
+        <v>-1.920118377169089</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7635699943656395</v>
+        <v>2.441297779145359</v>
       </c>
       <c r="C6">
-        <v>1.51169649682619</v>
+        <v>5.308988086776679</v>
       </c>
       <c r="D6">
-        <v>1.055031937134317</v>
+        <v>-5.367131997569174</v>
       </c>
       <c r="E6">
-        <v>0.9672063213316027</v>
+        <v>1.906419889808291</v>
       </c>
       <c r="F6">
-        <v>0.9665941009212848</v>
+        <v>4.076968741072946</v>
       </c>
       <c r="G6">
-        <v>1.682756068429413</v>
+        <v>-4.704346582226817</v>
       </c>
       <c r="H6">
-        <v>2.278427062846817</v>
+        <v>1.860984558855663</v>
       </c>
       <c r="I6">
-        <v>2.548484605551125</v>
+        <v>2.15601027640075</v>
       </c>
       <c r="J6">
-        <v>2.397840812227685</v>
+        <v>-0.414576081520849</v>
       </c>
       <c r="K6">
-        <v>0.1815367702448472</v>
+        <v>2.832914289880847</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-4.253956149642363</v>
+        <v>-10.67612008434585</v>
       </c>
       <c r="C7">
-        <v>-4.341781765445077</v>
+        <v>-3.402568196968389</v>
       </c>
       <c r="D7">
-        <v>-4.342393985855395</v>
+        <v>-1.232019345703734</v>
       </c>
       <c r="E7">
-        <v>-3.626232018347267</v>
+        <v>-10.0133346690035</v>
       </c>
       <c r="F7">
-        <v>-3.030561023929863</v>
+        <v>-3.448003527921017</v>
       </c>
       <c r="G7">
-        <v>-2.760503481225555</v>
+        <v>-3.15297781037593</v>
       </c>
       <c r="H7">
-        <v>-2.911147274548995</v>
+        <v>-5.723564168297528</v>
       </c>
       <c r="I7">
-        <v>-5.127451316531833</v>
+        <v>-2.476073796895833</v>
       </c>
       <c r="J7">
-        <v>-4.970650734586684</v>
+        <v>-2.739671168633763</v>
       </c>
       <c r="K7">
-        <v>-4.580893809768284</v>
+        <v>-5.350192146326137</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.9398257888870063</v>
+        <v>2.170548851264655</v>
       </c>
       <c r="C8">
-        <v>-0.223663821378878</v>
+        <v>-6.610766472035109</v>
       </c>
       <c r="D8">
-        <v>0.3720071730385257</v>
+        <v>-0.04543533095262831</v>
       </c>
       <c r="E8">
-        <v>0.6420647157428339</v>
+        <v>0.2495903865924589</v>
       </c>
       <c r="F8">
-        <v>0.4914209224193939</v>
+        <v>-2.32099597132914</v>
       </c>
       <c r="G8">
-        <v>-1.724883119563444</v>
+        <v>0.9264944000725559</v>
       </c>
       <c r="H8">
-        <v>-1.568082537618295</v>
+        <v>0.6628970283346258</v>
       </c>
       <c r="I8">
-        <v>-1.178325612799895</v>
+        <v>-1.947623949357748</v>
       </c>
       <c r="J8">
-        <v>-1.062051838181986</v>
+        <v>0.3134061192806712</v>
       </c>
       <c r="K8">
-        <v>-0.8930832304216381</v>
+        <v>1.667543063003066</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.982773645073634</v>
+        <v>6.56533114108248</v>
       </c>
       <c r="C9">
-        <v>7.252831187777943</v>
+        <v>6.860356858627568</v>
       </c>
       <c r="D9">
-        <v>7.102187394454503</v>
+        <v>4.289770500705968</v>
       </c>
       <c r="E9">
-        <v>4.885883352471665</v>
+        <v>7.537260872107664</v>
       </c>
       <c r="F9">
-        <v>5.042683934416814</v>
+        <v>7.273663500369734</v>
       </c>
       <c r="G9">
-        <v>5.432440859235213</v>
+        <v>4.663142522677361</v>
       </c>
       <c r="H9">
-        <v>5.548714633853122</v>
+        <v>6.92417259131578</v>
       </c>
       <c r="I9">
-        <v>5.717683241613471</v>
+        <v>8.278309535038176</v>
       </c>
       <c r="J9">
-        <v>5.64810960791486</v>
+        <v>4.279771025070587</v>
       </c>
       <c r="K9">
-        <v>5.624940092236641</v>
+        <v>3.833239415386485</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.241830535826935</v>
+        <v>-2.570586357921599</v>
       </c>
       <c r="C10">
-        <v>-1.974473506155903</v>
+        <v>0.676904013480097</v>
       </c>
       <c r="D10">
-        <v>-1.817672924210754</v>
+        <v>0.4133066417421669</v>
       </c>
       <c r="E10">
-        <v>-1.427915999392354</v>
+        <v>-2.197214335950207</v>
       </c>
       <c r="F10">
-        <v>-1.311642224774445</v>
+        <v>0.06381573268821228</v>
       </c>
       <c r="G10">
-        <v>-1.142673617014097</v>
+        <v>1.417952676410607</v>
       </c>
       <c r="H10">
-        <v>-1.212247250712707</v>
+        <v>-2.580585833556981</v>
       </c>
       <c r="I10">
-        <v>-1.235416766390927</v>
+        <v>-3.027117443241082</v>
       </c>
       <c r="J10">
-        <v>-1.235507560100345</v>
+        <v>-0.8650624912098266</v>
       </c>
       <c r="K10">
-        <v>-1.058979366149842</v>
+        <v>-4.310500448812462</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-2.494576937690851</v>
+        <v>-0.2635973717379301</v>
       </c>
       <c r="C11">
-        <v>-2.104820012872451</v>
+        <v>-2.874118349430304</v>
       </c>
       <c r="D11">
-        <v>-1.988546238254542</v>
+        <v>-0.6130882807918847</v>
       </c>
       <c r="E11">
-        <v>-1.819577630494194</v>
+        <v>0.7410486629305102</v>
       </c>
       <c r="F11">
-        <v>-1.889151264192804</v>
+        <v>-3.257489847037078</v>
       </c>
       <c r="G11">
-        <v>-1.912320779871024</v>
+        <v>-3.704021456721179</v>
       </c>
       <c r="H11">
-        <v>-1.912411573580442</v>
+        <v>-1.541966504689924</v>
       </c>
       <c r="I11">
-        <v>-1.735883379629939</v>
+        <v>-4.98740446229256</v>
       </c>
       <c r="J11">
-        <v>-1.917877041970072</v>
+        <v>2.547967972693116</v>
       </c>
       <c r="K11">
-        <v>-1.975312553860831</v>
+        <v>-0.9985800908963962</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.8855721111757617</v>
+        <v>2.261030068638419</v>
       </c>
       <c r="C12">
-        <v>1.05454071893611</v>
+        <v>3.615167012360814</v>
       </c>
       <c r="D12">
-        <v>0.9849670852374999</v>
+        <v>-0.3833714976067739</v>
       </c>
       <c r="E12">
-        <v>0.9617975695592804</v>
+        <v>-0.8299031072908751</v>
       </c>
       <c r="F12">
-        <v>0.9617067758498621</v>
+        <v>1.33215184474038</v>
       </c>
       <c r="G12">
-        <v>1.138234969800365</v>
+        <v>-2.113286112862255</v>
       </c>
       <c r="H12">
-        <v>0.9562413074602318</v>
+        <v>5.42208632212342</v>
       </c>
       <c r="I12">
-        <v>0.8988057955694728</v>
+        <v>1.875538258533908</v>
       </c>
       <c r="J12">
-        <v>0.8985872264301946</v>
+        <v>0.2017760632653849</v>
       </c>
       <c r="K12">
-        <v>0.6411463508594153</v>
+        <v>-0.172466203975489</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-2.630199927123314</v>
+        <v>-3.998538509967588</v>
       </c>
       <c r="C13">
-        <v>-2.653369442801534</v>
+        <v>-4.445070119651689</v>
       </c>
       <c r="D13">
-        <v>-2.653460236510952</v>
+        <v>-2.283015167620434</v>
       </c>
       <c r="E13">
-        <v>-2.476932042560449</v>
+        <v>-5.728453125223069</v>
       </c>
       <c r="F13">
-        <v>-2.658925704900582</v>
+        <v>1.806919309762606</v>
       </c>
       <c r="G13">
-        <v>-2.716361216791341</v>
+        <v>-1.739628753826906</v>
       </c>
       <c r="H13">
-        <v>-2.71657978593062</v>
+        <v>-3.41339094909543</v>
       </c>
       <c r="I13">
-        <v>-2.974020661501399</v>
+        <v>-3.787633216336303</v>
       </c>
       <c r="J13">
-        <v>-3.004512560810326</v>
+        <v>-0.7865031244705563</v>
       </c>
       <c r="K13">
-        <v>-3.04775662865633</v>
+        <v>-1.762665076269329</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.791609883140737</v>
+        <v>2.162054952031256</v>
       </c>
       <c r="C14">
-        <v>1.96813807709124</v>
+        <v>-1.28338300557138</v>
       </c>
       <c r="D14">
-        <v>1.786144414751107</v>
+        <v>6.251989429414295</v>
       </c>
       <c r="E14">
-        <v>1.728708902860348</v>
+        <v>2.705441365824783</v>
       </c>
       <c r="F14">
-        <v>1.72849033372107</v>
+        <v>1.03167917055626</v>
       </c>
       <c r="G14">
-        <v>1.47104945815029</v>
+        <v>0.6574369033153862</v>
       </c>
       <c r="H14">
-        <v>1.440557558841363</v>
+        <v>3.658566995181133</v>
       </c>
       <c r="I14">
-        <v>1.397313490995359</v>
+        <v>2.682405043382361</v>
       </c>
       <c r="J14">
-        <v>1.397259079753625</v>
+        <v>0.3874356032970072</v>
       </c>
       <c r="K14">
-        <v>2.019808281371397</v>
+        <v>0.03194204313337012</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>3.069527420322487</v>
+        <v>7.535372434985675</v>
       </c>
       <c r="C15">
-        <v>3.012091908431728</v>
+        <v>3.988824371396163</v>
       </c>
       <c r="D15">
-        <v>3.01187333929245</v>
+        <v>2.31506217612764</v>
       </c>
       <c r="E15">
-        <v>2.75443246372167</v>
+        <v>1.940819908886766</v>
       </c>
       <c r="F15">
-        <v>2.723940564412743</v>
+        <v>4.941950000752513</v>
       </c>
       <c r="G15">
-        <v>2.680696496566739</v>
+        <v>3.96578804895374</v>
       </c>
       <c r="H15">
-        <v>2.680642085325005</v>
+        <v>1.670818608868387</v>
       </c>
       <c r="I15">
-        <v>3.303191286942777</v>
+        <v>1.31532504870475</v>
       </c>
       <c r="J15">
-        <v>3.134268475554691</v>
+        <v>5.547995707475309</v>
       </c>
       <c r="K15">
-        <v>3.023128200670314</v>
+        <v>3.361655565769908</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.9769510321037131</v>
+        <v>-1.673762195268523</v>
       </c>
       <c r="C16">
-        <v>-1.234391907674492</v>
+        <v>-2.048004462509397</v>
       </c>
       <c r="D16">
-        <v>-1.26488380698342</v>
+        <v>0.9531256293563501</v>
       </c>
       <c r="E16">
-        <v>-1.308127874829424</v>
+        <v>-0.02303632244242237</v>
       </c>
       <c r="F16">
-        <v>-1.308182286071158</v>
+        <v>-2.318005762527775</v>
       </c>
       <c r="G16">
-        <v>-0.6856330844533858</v>
+        <v>-2.673499322691413</v>
       </c>
       <c r="H16">
-        <v>-0.8545558958414716</v>
+        <v>1.559171336079146</v>
       </c>
       <c r="I16">
-        <v>-0.9656961707258489</v>
+        <v>-0.6271688056262548</v>
       </c>
       <c r="J16">
-        <v>-0.9689314161109905</v>
+        <v>-1.171899658114114</v>
       </c>
       <c r="K16">
-        <v>-0.9755085743021539</v>
+        <v>-2.648291476919099</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.7831206555259769</v>
+        <v>3.001130091865747</v>
       </c>
       <c r="C17">
-        <v>0.7398765876799729</v>
+        <v>2.024968140066974</v>
       </c>
       <c r="D17">
-        <v>0.7398221764382384</v>
+        <v>-0.270001300018379</v>
       </c>
       <c r="E17">
-        <v>1.362371378056011</v>
+        <v>-0.6254948601820161</v>
       </c>
       <c r="F17">
-        <v>1.193448566667925</v>
+        <v>3.607175798588543</v>
       </c>
       <c r="G17">
-        <v>1.082308291783548</v>
+        <v>1.420835656883142</v>
       </c>
       <c r="H17">
-        <v>1.079073046398406</v>
+        <v>0.8761048043952826</v>
       </c>
       <c r="I17">
-        <v>1.072495888207243</v>
+        <v>-0.6002870144097021</v>
       </c>
       <c r="J17">
-        <v>1.071759419757342</v>
+        <v>1.204985302679873</v>
       </c>
       <c r="K17">
-        <v>1.032394765968235</v>
+        <v>2.131883659316486</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1.285145963628736</v>
+        <v>-2.294969440085353</v>
       </c>
       <c r="C18">
-        <v>-0.6625967620109634</v>
+        <v>-2.65046300024899</v>
       </c>
       <c r="D18">
-        <v>-0.8315195733990492</v>
+        <v>1.582207658521569</v>
       </c>
       <c r="E18">
-        <v>-0.9426598482834265</v>
+        <v>-0.6041324831838324</v>
       </c>
       <c r="F18">
-        <v>-0.9458950936685682</v>
+        <v>-1.148863335671692</v>
       </c>
       <c r="G18">
-        <v>-0.9524722518597315</v>
+        <v>-2.625255154476676</v>
       </c>
       <c r="H18">
-        <v>-0.9532087203096324</v>
+        <v>-0.8199828373871014</v>
       </c>
       <c r="I18">
-        <v>-0.9925733740987397</v>
+        <v>0.1069155192495117</v>
       </c>
       <c r="J18">
-        <v>-0.9928798017034239</v>
+        <v>0.03225072808909601</v>
       </c>
       <c r="K18">
-        <v>-0.9698862401147892</v>
+        <v>-2.39717264107641</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.818943426849941</v>
+        <v>4.232670658770559</v>
       </c>
       <c r="C19">
-        <v>1.707803151965564</v>
+        <v>2.046330517065158</v>
       </c>
       <c r="D19">
-        <v>1.704567906580422</v>
+        <v>1.501599664577299</v>
       </c>
       <c r="E19">
-        <v>1.697990748389259</v>
+        <v>0.02520784577231394</v>
       </c>
       <c r="F19">
-        <v>1.697254279939358</v>
+        <v>1.830480162861889</v>
       </c>
       <c r="G19">
-        <v>1.657889626150251</v>
+        <v>2.757378519498502</v>
       </c>
       <c r="H19">
-        <v>1.657583198545566</v>
+        <v>2.682713728338086</v>
       </c>
       <c r="I19">
-        <v>1.680576760134201</v>
+        <v>0.2532903591725808</v>
       </c>
       <c r="J19">
-        <v>1.680246268736965</v>
+        <v>1.716233447054407</v>
       </c>
       <c r="K19">
-        <v>1.668238505414308</v>
+        <v>1.425384209656022</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.3417626104847358</v>
+        <v>-0.5447308524878594</v>
       </c>
       <c r="C20">
-        <v>-0.3483397686758991</v>
+        <v>-2.021122671292844</v>
       </c>
       <c r="D20">
-        <v>-0.3490762371258</v>
+        <v>-0.215850354203269</v>
       </c>
       <c r="E20">
-        <v>-0.3884408909149073</v>
+        <v>0.7110480024333441</v>
       </c>
       <c r="F20">
-        <v>-0.3887473185195915</v>
+        <v>0.6363832112729284</v>
       </c>
       <c r="G20">
-        <v>-0.3657537569309568</v>
+        <v>-1.793040157892577</v>
       </c>
       <c r="H20">
-        <v>-0.3660842483281925</v>
+        <v>-0.3300970700107513</v>
       </c>
       <c r="I20">
-        <v>-0.3780920116508497</v>
+        <v>-0.620946307409136</v>
       </c>
       <c r="J20">
-        <v>-0.3784749183556784</v>
+        <v>-1.005269381356413</v>
       </c>
       <c r="K20">
-        <v>-0.3266780172471755</v>
+        <v>-1.620946307409136</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>1.672046434167044</v>
+        <v>1.805272317089575</v>
       </c>
       <c r="C21">
-        <v>1.632681780377937</v>
+        <v>2.732170673726188</v>
       </c>
       <c r="D21">
-        <v>1.632375352773253</v>
+        <v>2.657505882565772</v>
       </c>
       <c r="E21">
-        <v>1.655368914361887</v>
+        <v>0.2280825134002669</v>
       </c>
       <c r="F21">
-        <v>1.655038422964652</v>
+        <v>1.691025601282093</v>
       </c>
       <c r="G21">
-        <v>1.643030659641994</v>
+        <v>1.400176363883708</v>
       </c>
       <c r="H21">
-        <v>1.642647752937166</v>
+        <v>1.015853289936431</v>
       </c>
       <c r="I21">
-        <v>1.694444654045669</v>
+        <v>0.4001763638837081</v>
       </c>
       <c r="J21">
-        <v>1.712059013965075</v>
+        <v>3.326591110364234</v>
       </c>
       <c r="K21">
-        <v>1.736181548178295</v>
+        <v>1.127195992453338</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1.099795320952936</v>
+        <v>-0.07466479116041569</v>
       </c>
       <c r="C22">
-        <v>-1.076801759364301</v>
+        <v>-2.504088160325921</v>
       </c>
       <c r="D22">
-        <v>-1.077132250761537</v>
+        <v>-1.041145072444095</v>
       </c>
       <c r="E22">
-        <v>-1.089140014084194</v>
+        <v>-1.33199430984248</v>
       </c>
       <c r="F22">
-        <v>-1.089522920789022</v>
+        <v>-1.716317383789757</v>
       </c>
       <c r="G22">
-        <v>-1.03772601968052</v>
+        <v>-2.33199430984248</v>
       </c>
       <c r="H22">
-        <v>-1.020111659761113</v>
+        <v>0.5944204366380459</v>
       </c>
       <c r="I22">
-        <v>-0.9959891255478937</v>
+        <v>-1.60497468127285</v>
       </c>
       <c r="J22">
-        <v>-0.9965164676041383</v>
+        <v>-1.032444361206231</v>
       </c>
       <c r="K22">
-        <v>-1.024366230650088</v>
+        <v>-4.53199430984248</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1.002136968203885</v>
+        <v>-2.429423369165506</v>
       </c>
       <c r="C23">
-        <v>-1.002467459601121</v>
+        <v>-0.9664802812836797</v>
       </c>
       <c r="D23">
-        <v>-1.014475222923778</v>
+        <v>-1.257329518682064</v>
       </c>
       <c r="E23">
-        <v>-1.014858129628607</v>
+        <v>-1.641652592629341</v>
       </c>
       <c r="F23">
-        <v>-0.9630612285201039</v>
+        <v>-2.257329518682064</v>
       </c>
       <c r="G23">
-        <v>-0.9454468686006976</v>
+        <v>0.6690852277984616</v>
       </c>
       <c r="H23">
-        <v>-0.921324334387478</v>
+        <v>-1.530309890112434</v>
       </c>
       <c r="I23">
-        <v>-0.9218516764437226</v>
+        <v>-0.9577795700458154</v>
       </c>
       <c r="J23">
-        <v>-0.9497014394896723</v>
+        <v>-4.457329518682064</v>
       </c>
       <c r="K23">
-        <v>-0.9494930699436992</v>
+        <v>3.864803897743683</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1.426955909564385</v>
+        <v>1.462943087881826</v>
       </c>
       <c r="C24">
-        <v>1.414948146241727</v>
+        <v>1.172093850483441</v>
       </c>
       <c r="D24">
-        <v>1.414565239536899</v>
+        <v>0.7877707765361641</v>
       </c>
       <c r="E24">
-        <v>1.466362140645402</v>
+        <v>0.1720938504834413</v>
       </c>
       <c r="F24">
-        <v>1.483976500564808</v>
+        <v>3.098508596963967</v>
       </c>
       <c r="G24">
-        <v>1.508099034778028</v>
+        <v>0.8991134790530713</v>
       </c>
       <c r="H24">
-        <v>1.507571692721783</v>
+        <v>1.47164379911969</v>
       </c>
       <c r="I24">
-        <v>1.479721929675833</v>
+        <v>-2.027906149516558</v>
       </c>
       <c r="J24">
-        <v>1.479930299221806</v>
+        <v>6.294227266909189</v>
       </c>
       <c r="K24">
-        <v>1.479524001938828</v>
+        <v>4.039308641154094</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.04799494164009843</v>
+        <v>-0.2908492373983848</v>
       </c>
       <c r="C25">
-        <v>-0.04837784834492709</v>
+        <v>-0.6751723113456618</v>
       </c>
       <c r="D25">
-        <v>0.003419052763575792</v>
+        <v>-1.290849237398385</v>
       </c>
       <c r="E25">
-        <v>0.02103341268298209</v>
+        <v>1.635565509082141</v>
       </c>
       <c r="F25">
-        <v>0.04515594689620173</v>
+        <v>-0.5638296088287547</v>
       </c>
       <c r="G25">
-        <v>0.04462860483995712</v>
+        <v>0.008700711237864311</v>
       </c>
       <c r="H25">
-        <v>0.01677884179400735</v>
+        <v>-3.490849237398384</v>
       </c>
       <c r="I25">
-        <v>0.01698721133998049</v>
+        <v>4.831284179027363</v>
       </c>
       <c r="J25">
-        <v>0.01658091405700191</v>
+        <v>2.576365553272268</v>
       </c>
       <c r="K25">
-        <v>0.01617508375490218</v>
+        <v>-1.226961984855507</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.2424713890534577</v>
+        <v>-0.384323073947277</v>
       </c>
       <c r="C26">
-        <v>0.2942682901619605</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="D26">
-        <v>0.3118826500813668</v>
+        <v>1.926414746480526</v>
       </c>
       <c r="E26">
-        <v>0.3360051842945865</v>
+        <v>-0.2729803714303699</v>
       </c>
       <c r="F26">
-        <v>0.3354778422383419</v>
+        <v>0.2995499486362491</v>
       </c>
       <c r="G26">
-        <v>0.3076280791923921</v>
+        <v>-3.2</v>
       </c>
       <c r="H26">
-        <v>0.3078364487383652</v>
+        <v>5.122133416425748</v>
       </c>
       <c r="I26">
-        <v>0.3074301514553867</v>
+        <v>2.867214790670653</v>
       </c>
       <c r="J26">
-        <v>0.3070243211532869</v>
+        <v>-0.9361127474571219</v>
       </c>
       <c r="K26">
-        <v>0.5791331216483627</v>
+        <v>-0.2425072417365669</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.6785913641092376</v>
+        <v>-0.6156769260527228</v>
       </c>
       <c r="C27">
-        <v>0.6962057240286439</v>
+        <v>2.310737820427803</v>
       </c>
       <c r="D27">
-        <v>0.7203282582418635</v>
+        <v>0.1113427025169071</v>
       </c>
       <c r="E27">
-        <v>0.7198009161856189</v>
+        <v>0.6838730225835261</v>
       </c>
       <c r="F27">
-        <v>0.6919511531396692</v>
+        <v>-2.815676926052722</v>
       </c>
       <c r="G27">
-        <v>0.6921595226856423</v>
+        <v>5.506456490373025</v>
       </c>
       <c r="H27">
-        <v>0.6917532254026637</v>
+        <v>3.25153786461793</v>
       </c>
       <c r="I27">
-        <v>0.691347395100564</v>
+        <v>-0.5517896735098449</v>
       </c>
       <c r="J27">
-        <v>0.9634561955956398</v>
+        <v>0.1418158322107101</v>
       </c>
       <c r="K27">
-        <v>0.9632277652533217</v>
+        <v>1.006430927127624</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1.311882650081367</v>
+        <v>2.926414746480526</v>
       </c>
       <c r="C28">
-        <v>1.336005184294586</v>
+        <v>0.72701962856963</v>
       </c>
       <c r="D28">
-        <v>1.335477842238342</v>
+        <v>1.299549948636249</v>
       </c>
       <c r="E28">
-        <v>1.307628079192392</v>
+        <v>-2.2</v>
       </c>
       <c r="F28">
-        <v>1.307836448738365</v>
+        <v>6.122133416425747</v>
       </c>
       <c r="G28">
-        <v>1.307430151455387</v>
+        <v>3.867214790670653</v>
       </c>
       <c r="H28">
-        <v>1.307024321153287</v>
+        <v>0.06388725254287797</v>
       </c>
       <c r="I28">
-        <v>1.579133121648363</v>
+        <v>0.757492758263433</v>
       </c>
       <c r="J28">
-        <v>1.578904691306044</v>
+        <v>1.622107853180347</v>
       </c>
       <c r="K28">
-        <v>1.578787841654554</v>
+        <v>4.236211685220064</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1.59040956218594</v>
+        <v>-2.199395117910896</v>
       </c>
       <c r="C29">
-        <v>-1.590936904242184</v>
+        <v>-1.626864797844277</v>
       </c>
       <c r="D29">
-        <v>-1.618786667288134</v>
+        <v>-5.126414746480526</v>
       </c>
       <c r="E29">
-        <v>-1.618578297742161</v>
+        <v>3.195718669945221</v>
       </c>
       <c r="F29">
-        <v>-1.618984595025139</v>
+        <v>0.940800044190127</v>
       </c>
       <c r="G29">
-        <v>-1.619390425327239</v>
+        <v>-2.862527493937648</v>
       </c>
       <c r="H29">
-        <v>-1.347281624832163</v>
+        <v>-2.168921988217093</v>
       </c>
       <c r="I29">
-        <v>-1.347510055174481</v>
+        <v>-1.304306893300179</v>
       </c>
       <c r="J29">
-        <v>-1.347626904825972</v>
+        <v>1.309796938739538</v>
       </c>
       <c r="K29">
-        <v>-1.347743650551962</v>
+        <v>-1.062844295509492</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.6084582136687118</v>
+        <v>0.572530320066619</v>
       </c>
       <c r="C30">
-        <v>0.580608450622762</v>
+        <v>-2.92701962856963</v>
       </c>
       <c r="D30">
-        <v>0.5808168201687351</v>
+        <v>5.395113787856118</v>
       </c>
       <c r="E30">
-        <v>0.5804105228857566</v>
+        <v>3.140195162101023</v>
       </c>
       <c r="F30">
-        <v>0.5800046925836568</v>
+        <v>-0.663132376026752</v>
       </c>
       <c r="G30">
-        <v>0.8521134930787326</v>
+        <v>0.030473129693803</v>
       </c>
       <c r="H30">
-        <v>0.8518850627364145</v>
+        <v>0.895088224610717</v>
       </c>
       <c r="I30">
-        <v>0.8517682130849238</v>
+        <v>3.509192056650434</v>
       </c>
       <c r="J30">
-        <v>0.8516514673589342</v>
+        <v>1.136550822401404</v>
       </c>
       <c r="K30">
-        <v>0.607592721491983</v>
+        <v>-3.450082437621006</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.008078130556143037</v>
+        <v>-3.499549948636249</v>
       </c>
       <c r="C31">
-        <v>0.008286500102116179</v>
+        <v>4.822583467789499</v>
       </c>
       <c r="D31">
-        <v>0.007880202819137594</v>
+        <v>2.567664842034404</v>
       </c>
       <c r="E31">
-        <v>0.007474372517037864</v>
+        <v>-1.235662696093371</v>
       </c>
       <c r="F31">
-        <v>0.2795831730121137</v>
+        <v>-0.542057190372816</v>
       </c>
       <c r="G31">
-        <v>0.2793547426697955</v>
+        <v>0.3225579045440981</v>
       </c>
       <c r="H31">
-        <v>0.2792378930183049</v>
+        <v>2.936661736583815</v>
       </c>
       <c r="I31">
-        <v>0.2791211472923152</v>
+        <v>0.5640205023347846</v>
       </c>
       <c r="J31">
-        <v>0.03506240142536399</v>
+        <v>-4.022612757687625</v>
       </c>
       <c r="K31">
-        <v>0.0345460207742434</v>
+        <v>3.962161202301814</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>3.507836448738365</v>
+        <v>8.322133416425746</v>
       </c>
       <c r="C32">
-        <v>3.507430151455386</v>
+        <v>6.067214790670652</v>
       </c>
       <c r="D32">
-        <v>3.507024321153287</v>
+        <v>2.263887252542878</v>
       </c>
       <c r="E32">
-        <v>3.779133121648362</v>
+        <v>2.957492758263433</v>
       </c>
       <c r="F32">
-        <v>3.778904691306044</v>
+        <v>3.822107853180347</v>
       </c>
       <c r="G32">
-        <v>3.778787841654554</v>
+        <v>6.436211685220064</v>
       </c>
       <c r="H32">
-        <v>3.778671095928564</v>
+        <v>4.063570450971033</v>
       </c>
       <c r="I32">
-        <v>3.534612350061613</v>
+        <v>-0.5230628090513765</v>
       </c>
       <c r="J32">
-        <v>3.534095969410492</v>
+        <v>7.461711150938063</v>
       </c>
       <c r="K32">
-        <v>3.533891694544456</v>
+        <v>5.532989117992093</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.9867534939211566</v>
+        <v>-2.254918625755095</v>
       </c>
       <c r="C33">
-        <v>-0.9871593242232564</v>
+        <v>-6.05824616388287</v>
       </c>
       <c r="D33">
-        <v>-0.7150505237281806</v>
+        <v>-5.364640658162315</v>
       </c>
       <c r="E33">
-        <v>-0.7152789540704987</v>
+        <v>-4.5000255632454</v>
       </c>
       <c r="F33">
-        <v>-0.7153958037219894</v>
+        <v>-1.885921731205684</v>
       </c>
       <c r="G33">
-        <v>-0.715512549447979</v>
+        <v>-4.258562965454714</v>
       </c>
       <c r="H33">
-        <v>-0.9595712953149302</v>
+        <v>-8.845196225477125</v>
       </c>
       <c r="I33">
-        <v>-0.9600876759660508</v>
+        <v>-0.8604222654876845</v>
       </c>
       <c r="J33">
-        <v>-0.9602919508320866</v>
+        <v>-2.789144298433655</v>
       </c>
       <c r="K33">
-        <v>-0.9604964825970654</v>
+        <v>-1.370722894614317</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.2871833298867301</v>
+        <v>-3.803327538127775</v>
       </c>
       <c r="C34">
-        <v>0.5592921303818059</v>
+        <v>-3.10972203240722</v>
       </c>
       <c r="D34">
-        <v>0.5590637000394878</v>
+        <v>-2.245106937490306</v>
       </c>
       <c r="E34">
-        <v>0.5589468503879971</v>
+        <v>0.3689968945494109</v>
       </c>
       <c r="F34">
-        <v>0.5588301046620074</v>
+        <v>-2.003644339699619</v>
       </c>
       <c r="G34">
-        <v>0.3147713587950562</v>
+        <v>-6.590277599722029</v>
       </c>
       <c r="H34">
-        <v>0.3142549781439357</v>
+        <v>1.39449636026741</v>
       </c>
       <c r="I34">
-        <v>0.3140507032778999</v>
+        <v>-0.5342256726785599</v>
       </c>
       <c r="J34">
-        <v>0.313846171512921</v>
+        <v>0.884195731140778</v>
       </c>
       <c r="K34">
-        <v>0.4573872896650783</v>
+        <v>-5.900772184672732</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-3.950036750260409</v>
+        <v>0.693605505720555</v>
       </c>
       <c r="C35">
-        <v>-3.950265180602727</v>
+        <v>1.558220600637469</v>
       </c>
       <c r="D35">
-        <v>-3.950382030254218</v>
+        <v>4.172324432677186</v>
       </c>
       <c r="E35">
-        <v>-3.950498775980208</v>
+        <v>1.799683198428156</v>
       </c>
       <c r="F35">
-        <v>-4.194557521847159</v>
+        <v>-2.786950061594254</v>
       </c>
       <c r="G35">
-        <v>-4.195073902498279</v>
+        <v>5.197823898395185</v>
       </c>
       <c r="H35">
-        <v>-4.195278177364315</v>
+        <v>3.269101865449215</v>
       </c>
       <c r="I35">
-        <v>-4.195482709129294</v>
+        <v>4.687523269268553</v>
       </c>
       <c r="J35">
-        <v>-4.051941590977137</v>
+        <v>-2.097444646544957</v>
+      </c>
+      <c r="K35">
+        <v>1.603176811557688</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.3668459010783351</v>
+        <v>0.864615094916914</v>
       </c>
       <c r="C36">
-        <v>0.3667290514268445</v>
+        <v>3.478718926956631</v>
       </c>
       <c r="D36">
-        <v>0.3666123057008548</v>
+        <v>1.106077692707601</v>
       </c>
       <c r="E36">
-        <v>0.1225535598339036</v>
+        <v>-3.480555567314809</v>
       </c>
       <c r="F36">
-        <v>0.122037179182783</v>
+        <v>4.50421839267463</v>
       </c>
       <c r="G36">
-        <v>0.1218329043167472</v>
+        <v>2.57549635972866</v>
       </c>
       <c r="H36">
-        <v>0.1216283725517684</v>
+        <v>3.993917763547998</v>
       </c>
       <c r="I36">
-        <v>0.2651694907039256</v>
+        <v>-2.791050152265512</v>
+      </c>
+      <c r="J36">
+        <v>0.9095713058371331</v>
+      </c>
+      <c r="K36">
+        <v>0.7100566067925911</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.7743792553568478</v>
+        <v>2.614103832039717</v>
       </c>
       <c r="C37">
-        <v>0.7742625096308582</v>
+        <v>0.2414625977906866</v>
       </c>
       <c r="D37">
-        <v>0.530203763763907</v>
+        <v>-4.345170662231723</v>
       </c>
       <c r="E37">
-        <v>0.5296873831127864</v>
+        <v>3.639603297757716</v>
       </c>
       <c r="F37">
-        <v>0.5294831082467506</v>
+        <v>1.710881264811746</v>
       </c>
       <c r="G37">
-        <v>0.5292785764817718</v>
+        <v>3.129302668631084</v>
       </c>
       <c r="H37">
-        <v>0.6728196946339291</v>
+        <v>-3.655665247182426</v>
+      </c>
+      <c r="I37">
+        <v>0.04495621092021912</v>
+      </c>
+      <c r="J37">
+        <v>-0.1545584881243229</v>
+      </c>
+      <c r="K37">
+        <v>1.999565869112118</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.01625290539564611</v>
+        <v>-2.37264123424903</v>
       </c>
       <c r="C38">
-        <v>-0.2278058404713051</v>
+        <v>-6.95927449427144</v>
       </c>
       <c r="D38">
-        <v>-0.2283222211224257</v>
+        <v>1.025499465717999</v>
       </c>
       <c r="E38">
-        <v>-0.2285264959884615</v>
+        <v>-0.9032225672279708</v>
       </c>
       <c r="F38">
-        <v>-0.2287310277534403</v>
+        <v>0.5151988365913671</v>
       </c>
       <c r="G38">
-        <v>-0.08518990960128303</v>
+        <v>-6.269769079222143</v>
+      </c>
+      <c r="H38">
+        <v>-2.569147621119498</v>
+      </c>
+      <c r="I38">
+        <v>-2.76866232016404</v>
+      </c>
+      <c r="J38">
+        <v>-0.6145379629275989</v>
+      </c>
+      <c r="K38">
+        <v>-5.048874187696682</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1.542386228944665</v>
+        <v>-4.58663326002241</v>
       </c>
       <c r="C39">
-        <v>1.541869848293544</v>
+        <v>3.398140699967029</v>
       </c>
       <c r="D39">
-        <v>1.541665573427509</v>
+        <v>1.469418667021059</v>
       </c>
       <c r="E39">
-        <v>1.54146104166253</v>
+        <v>2.887840070840397</v>
       </c>
       <c r="F39">
-        <v>1.685002159814687</v>
+        <v>-3.897127844973113</v>
+      </c>
+      <c r="G39">
+        <v>-0.1965063868704675</v>
+      </c>
+      <c r="H39">
+        <v>-0.3960210859150095</v>
+      </c>
+      <c r="I39">
+        <v>1.758103271321431</v>
+      </c>
+      <c r="J39">
+        <v>-2.676232953447652</v>
+      </c>
+      <c r="K39">
+        <v>2.044558549316577</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-2.162181434227747</v>
+        <v>7.98477395998944</v>
       </c>
       <c r="C40">
-        <v>-2.162385709093783</v>
+        <v>6.05605192704347</v>
       </c>
       <c r="D40">
-        <v>-2.162590240858762</v>
+        <v>7.474473330862807</v>
       </c>
       <c r="E40">
-        <v>-2.019049122706605</v>
+        <v>0.6895054150492972</v>
+      </c>
+      <c r="F40">
+        <v>4.390126873151942</v>
+      </c>
+      <c r="G40">
+        <v>4.1906121741074</v>
+      </c>
+      <c r="H40">
+        <v>6.344736531343841</v>
+      </c>
+      <c r="I40">
+        <v>1.910400306574758</v>
+      </c>
+      <c r="J40">
+        <v>6.631191809338986</v>
+      </c>
+      <c r="K40">
+        <v>4.969532140141652</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.8091041536638528</v>
+        <v>-1.92872203294597</v>
       </c>
       <c r="C41">
-        <v>-0.8093086854288316</v>
+        <v>-0.5103006291266321</v>
       </c>
       <c r="D41">
-        <v>-0.6657675672766743</v>
+        <v>-7.295268544940142</v>
+      </c>
+      <c r="E41">
+        <v>-3.594647086837497</v>
+      </c>
+      <c r="F41">
+        <v>-3.794161785882039</v>
+      </c>
+      <c r="G41">
+        <v>-1.640037428645598</v>
+      </c>
+      <c r="H41">
+        <v>-6.074373653414681</v>
+      </c>
+      <c r="I41">
+        <v>-1.353582150650453</v>
+      </c>
+      <c r="J41">
+        <v>-3.015241819847787</v>
+      </c>
+      <c r="K41">
+        <v>-4.405423389827859</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1.067282017698844</v>
+        <v>1.418421403819338</v>
       </c>
       <c r="C42">
-        <v>-0.9237408995466865</v>
+        <v>-5.366546511994172</v>
+      </c>
+      <c r="D42">
+        <v>-1.665925053891527</v>
+      </c>
+      <c r="E42">
+        <v>-1.865439752936069</v>
+      </c>
+      <c r="F42">
+        <v>0.2886846043003719</v>
+      </c>
+      <c r="G42">
+        <v>-4.145651620468711</v>
+      </c>
+      <c r="H42">
+        <v>0.5751398822955172</v>
+      </c>
+      <c r="I42">
+        <v>-1.086519786901817</v>
+      </c>
+      <c r="J42">
+        <v>-2.476701356881889</v>
+      </c>
+      <c r="K42">
+        <v>-1.960573978339482</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.2171448297306994</v>
+        <v>-6.78496791581351</v>
+      </c>
+      <c r="C43">
+        <v>-3.084346457710865</v>
+      </c>
+      <c r="D43">
+        <v>-3.283861156755407</v>
+      </c>
+      <c r="E43">
+        <v>-1.129736799518966</v>
+      </c>
+      <c r="F43">
+        <v>-5.564073024288049</v>
+      </c>
+      <c r="G43">
+        <v>-0.8432815215238207</v>
+      </c>
+      <c r="H43">
+        <v>-2.504941190721155</v>
+      </c>
+      <c r="I43">
+        <v>-3.895122760701227</v>
+      </c>
+      <c r="J43">
+        <v>-3.37899538215882</v>
+      </c>
+      <c r="K43">
+        <v>-0.7779522420223368</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>3.700621458102645</v>
+      </c>
+      <c r="C44">
+        <v>3.501106759058103</v>
+      </c>
+      <c r="D44">
+        <v>5.655231116294544</v>
+      </c>
+      <c r="E44">
+        <v>1.220894891525461</v>
+      </c>
+      <c r="F44">
+        <v>5.94168639428969</v>
+      </c>
+      <c r="G44">
+        <v>4.280026725092355</v>
+      </c>
+      <c r="H44">
+        <v>2.889845155112283</v>
+      </c>
+      <c r="I44">
+        <v>3.40597253365469</v>
+      </c>
+      <c r="J44">
+        <v>6.007015673791173</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.199514699044542</v>
+      </c>
+      <c r="C45">
+        <v>1.954609658191899</v>
+      </c>
+      <c r="D45">
+        <v>-2.479726566577184</v>
+      </c>
+      <c r="E45">
+        <v>2.241064936187044</v>
+      </c>
+      <c r="F45">
+        <v>0.5794052669897098</v>
+      </c>
+      <c r="G45">
+        <v>-0.8107763029903621</v>
+      </c>
+      <c r="H45">
+        <v>-0.2946489244479552</v>
+      </c>
+      <c r="I45">
+        <v>2.306394215688528</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>2.154124357236441</v>
+      </c>
+      <c r="C46">
+        <v>-2.280211867532642</v>
+      </c>
+      <c r="D46">
+        <v>2.440579635231586</v>
+      </c>
+      <c r="E46">
+        <v>0.7789199660342518</v>
+      </c>
+      <c r="F46">
+        <v>-0.6112616039458201</v>
+      </c>
+      <c r="G46">
+        <v>-0.09513422540341315</v>
+      </c>
+      <c r="H46">
+        <v>2.50590891473307</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-4.434336224769083</v>
+      </c>
+      <c r="C47">
+        <v>0.2864552779951453</v>
+      </c>
+      <c r="D47">
+        <v>-1.375204391202189</v>
+      </c>
+      <c r="E47">
+        <v>-2.765385961182261</v>
+      </c>
+      <c r="F47">
+        <v>-2.249258582639854</v>
+      </c>
+      <c r="G47">
+        <v>0.3517845574966292</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>4.720791502764229</v>
+      </c>
+      <c r="C48">
+        <v>3.059131833566894</v>
+      </c>
+      <c r="D48">
+        <v>1.668950263586822</v>
+      </c>
+      <c r="E48">
+        <v>2.185077642129229</v>
+      </c>
+      <c r="F48">
+        <v>4.786120782265712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-1.661659669197334</v>
+      </c>
+      <c r="C49">
+        <v>-3.051841239177406</v>
+      </c>
+      <c r="D49">
+        <v>-2.535713860634999</v>
+      </c>
+      <c r="E49">
+        <v>0.06532927950148393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-1.390181569980072</v>
+      </c>
+      <c r="C50">
+        <v>-0.8740541914376649</v>
+      </c>
+      <c r="D50">
+        <v>1.726988948698818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0.516127378542407</v>
+      </c>
+      <c r="C51">
+        <v>3.11717051867889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>2.601043140136483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>1.831229714613301</v>
       </c>
-      <c r="G2">
-        <v>3.1482358665139</v>
-      </c>
-      <c r="H2">
-        <v>-0.691828055922898</v>
-      </c>
-      <c r="I2">
-        <v>-0.927892787055939</v>
-      </c>
-      <c r="J2">
-        <v>1.51340499208942</v>
-      </c>
-      <c r="K2">
-        <v>4.381095299720741</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>5.44330527427482</v>
       </c>
-      <c r="I3">
-        <v>8.310995581906141</v>
-      </c>
-      <c r="J3">
-        <v>-2.365124502439713</v>
-      </c>
-      <c r="K3">
-        <v>4.908427384937752</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>1.233334978353412</v>
       </c>
-      <c r="G4">
-        <v>4.101025285984733</v>
-      </c>
-      <c r="H4">
-        <v>-6.575094798361121</v>
-      </c>
-      <c r="I4">
-        <v>0.698457089016344</v>
-      </c>
-      <c r="J4">
-        <v>2.869005940280999</v>
-      </c>
-      <c r="K4">
-        <v>-5.912309383018765</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>0.0008400875031071564</v>
       </c>
-      <c r="I5">
-        <v>-8.780475235796656</v>
-      </c>
-      <c r="J5">
-        <v>-2.215144094714176</v>
-      </c>
-      <c r="K5">
-        <v>-1.920118377169089</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>4.076968741072946</v>
       </c>
-      <c r="G6">
-        <v>-4.704346582226817</v>
-      </c>
-      <c r="H6">
-        <v>1.860984558855663</v>
-      </c>
-      <c r="I6">
-        <v>2.15601027640075</v>
-      </c>
-      <c r="J6">
-        <v>-0.414576081520849</v>
-      </c>
-      <c r="K6">
-        <v>2.832914289880847</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-5.723564168297528</v>
       </c>
-      <c r="I7">
-        <v>-2.476073796895833</v>
-      </c>
-      <c r="J7">
-        <v>-2.739671168633763</v>
-      </c>
-      <c r="K7">
-        <v>-5.350192146326137</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>-2.32099597132914</v>
       </c>
-      <c r="G8">
-        <v>0.9264944000725559</v>
-      </c>
-      <c r="H8">
-        <v>0.6628970283346258</v>
-      </c>
-      <c r="I8">
-        <v>-1.947623949357748</v>
-      </c>
-      <c r="J8">
-        <v>0.3134061192806712</v>
-      </c>
-      <c r="K8">
-        <v>1.667543063003066</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>6.92417259131578</v>
       </c>
-      <c r="I9">
-        <v>8.278309535038176</v>
-      </c>
-      <c r="J9">
-        <v>4.279771025070587</v>
-      </c>
-      <c r="K9">
-        <v>3.833239415386485</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.06381573268821228</v>
       </c>
-      <c r="G10">
-        <v>1.417952676410607</v>
-      </c>
-      <c r="H10">
-        <v>-2.580585833556981</v>
-      </c>
-      <c r="I10">
-        <v>-3.027117443241082</v>
-      </c>
-      <c r="J10">
-        <v>-0.8650624912098266</v>
-      </c>
-      <c r="K10">
-        <v>-4.310500448812462</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>-1.541966504689924</v>
       </c>
-      <c r="I11">
-        <v>-4.98740446229256</v>
-      </c>
-      <c r="J11">
-        <v>2.547967972693116</v>
-      </c>
-      <c r="K11">
-        <v>-0.9985800908963962</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>1.33215184474038</v>
       </c>
-      <c r="G12">
-        <v>-2.113286112862255</v>
-      </c>
-      <c r="H12">
-        <v>5.42208632212342</v>
-      </c>
-      <c r="I12">
-        <v>1.875538258533908</v>
-      </c>
-      <c r="J12">
-        <v>0.2017760632653849</v>
-      </c>
-      <c r="K12">
-        <v>-0.172466203975489</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-3.41339094909543</v>
       </c>
-      <c r="I13">
-        <v>-3.787633216336303</v>
-      </c>
-      <c r="J13">
-        <v>-0.7865031244705563</v>
-      </c>
-      <c r="K13">
-        <v>-1.762665076269329</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>1.03167917055626</v>
       </c>
-      <c r="G14">
-        <v>0.6574369033153862</v>
-      </c>
-      <c r="H14">
-        <v>3.658566995181133</v>
-      </c>
-      <c r="I14">
-        <v>2.682405043382361</v>
-      </c>
-      <c r="J14">
-        <v>0.3874356032970072</v>
-      </c>
-      <c r="K14">
-        <v>0.03194204313337012</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>1.670818608868387</v>
       </c>
-      <c r="I15">
-        <v>1.31532504870475</v>
-      </c>
-      <c r="J15">
-        <v>5.547995707475309</v>
-      </c>
-      <c r="K15">
-        <v>3.361655565769908</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-2.318005762527775</v>
       </c>
-      <c r="G16">
-        <v>-2.673499322691413</v>
-      </c>
-      <c r="H16">
-        <v>1.559171336079146</v>
-      </c>
-      <c r="I16">
-        <v>-0.6271688056262548</v>
-      </c>
-      <c r="J16">
-        <v>-1.171899658114114</v>
-      </c>
-      <c r="K16">
-        <v>-2.648291476919099</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0.8761048043952826</v>
       </c>
-      <c r="I17">
-        <v>-0.6002870144097021</v>
-      </c>
-      <c r="J17">
-        <v>1.204985302679873</v>
-      </c>
-      <c r="K17">
-        <v>2.131883659316486</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.03225072808909601</v>
       </c>
-      <c r="K18">
-        <v>-2.39717264107641</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>2.682713728338086</v>
       </c>
-      <c r="I19">
-        <v>0.2532903591725808</v>
-      </c>
-      <c r="J19">
-        <v>1.716233447054407</v>
-      </c>
-      <c r="K19">
-        <v>1.425384209656022</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-1.005269381356413</v>
       </c>
-      <c r="K20">
-        <v>-1.620946307409136</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>1.015853289936431</v>
       </c>
-      <c r="I21">
-        <v>0.4001763638837081</v>
-      </c>
-      <c r="J21">
-        <v>3.326591110364234</v>
-      </c>
-      <c r="K21">
-        <v>1.127195992453338</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-1.032444361206231</v>
       </c>
-      <c r="K22">
-        <v>-4.53199430984248</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-0.9577795700458154</v>
       </c>
-      <c r="J23">
-        <v>-4.457329518682064</v>
-      </c>
-      <c r="K23">
-        <v>3.864803897743683</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>1.47164379911969</v>
       </c>
-      <c r="I24">
-        <v>-2.027906149516558</v>
-      </c>
-      <c r="J24">
-        <v>6.294227266909189</v>
-      </c>
-      <c r="K24">
-        <v>4.039308641154094</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-0.9361127474571219</v>
       </c>
-      <c r="K26">
-        <v>-0.2425072417365669</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-0.5517896735098449</v>
       </c>
-      <c r="J27">
-        <v>0.1418158322107101</v>
-      </c>
-      <c r="K27">
-        <v>1.006430927127624</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>0.06388725254287797</v>
       </c>
-      <c r="I28">
-        <v>0.757492758263433</v>
-      </c>
-      <c r="J28">
-        <v>1.622107853180347</v>
-      </c>
-      <c r="K28">
-        <v>4.236211685220064</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>1.136550822401404</v>
       </c>
-      <c r="K30">
-        <v>-3.450082437621006</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>0.5640205023347846</v>
       </c>
-      <c r="J31">
-        <v>-4.022612757687625</v>
-      </c>
-      <c r="K31">
-        <v>3.962161202301814</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>4.063570450971033</v>
       </c>
-      <c r="I32">
-        <v>-0.5230628090513765</v>
-      </c>
-      <c r="J32">
-        <v>7.461711150938063</v>
-      </c>
-      <c r="K32">
-        <v>5.532989117992093</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.884195731140778</v>
       </c>
-      <c r="K34">
-        <v>-5.900772184672732</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>4.687523269268553</v>
       </c>
-      <c r="J35">
-        <v>-2.097444646544957</v>
-      </c>
-      <c r="K35">
-        <v>1.603176811557688</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>3.993917763547998</v>
       </c>
-      <c r="I36">
-        <v>-2.791050152265512</v>
-      </c>
-      <c r="J36">
-        <v>0.9095713058371331</v>
-      </c>
-      <c r="K36">
-        <v>0.7100566067925911</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>-0.6145379629275989</v>
       </c>
-      <c r="K38">
-        <v>-5.048874187696682</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>1.758103271321431</v>
       </c>
-      <c r="J39">
-        <v>-2.676232953447652</v>
-      </c>
-      <c r="K39">
-        <v>2.044558549316577</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>6.344736531343841</v>
       </c>
-      <c r="I40">
-        <v>1.910400306574758</v>
-      </c>
-      <c r="J40">
-        <v>6.631191809338986</v>
-      </c>
-      <c r="K40">
-        <v>4.969532140141652</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>-2.476701356881889</v>
       </c>
-      <c r="K42">
-        <v>-1.960573978339482</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-3.895122760701227</v>
       </c>
-      <c r="J43">
-        <v>-3.37899538215882</v>
-      </c>
-      <c r="K43">
-        <v>-0.7779522420223368</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>2.889845155112283</v>
-      </c>
-      <c r="I44">
-        <v>3.40597253365469</v>
-      </c>
-      <c r="J44">
-        <v>6.007015673791173</v>
       </c>
     </row>
     <row r="45" spans="1:11">
